--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="details" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="include_exclude" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="exclude_include" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="75">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -30,12 +30,18 @@
     <t xml:space="preserve">kpi_family</t>
   </si>
   <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
     <t xml:space="preserve">FSOS_OWN_MAN_ALL_SCENETYPE</t>
   </si>
   <si>
     <t xml:space="preserve">FSOS</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">FSOS_ALL_MAN_ALL_SCENETYPE</t>
   </si>
   <si>
@@ -45,6 +51,9 @@
     <t xml:space="preserve">FSOS_ALL_MAN_ALL_SCENETYPE_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">Add necessary scene types in details sheet</t>
+  </si>
+  <si>
     <t xml:space="preserve">FSOS_OWN_MAN_ALL_SUBCAT</t>
   </si>
   <si>
@@ -60,16 +69,19 @@
     <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">DST_MANUFACTURER_BY_SHELF_ASSORTMENT</t>
+    <t xml:space="preserve">PRODUCT_PRESENCE_BY_STORE_LIST</t>
   </si>
   <si>
     <t xml:space="preserve">Distribution</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">assortment</t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUCT_PRESENCE_BY_SHELF_ASSORTMENT</t>
+    <t xml:space="preserve">DST_MAN_BY_STORE_PERC</t>
   </si>
   <si>
     <t xml:space="preserve">1 = oos</t>
@@ -78,7 +90,7 @@
     <t xml:space="preserve">not present items in assortment</t>
   </si>
   <si>
-    <t xml:space="preserve">OOS_MANUFACTURER_BY_SHELF_ASSORTMENT</t>
+    <t xml:space="preserve">OOS_MAN_BY_STORE_PERC</t>
   </si>
   <si>
     <t xml:space="preserve">OOS</t>
@@ -90,7 +102,7 @@
     <t xml:space="preserve">present in scene/session/store which is in assortment</t>
   </si>
   <si>
-    <t xml:space="preserve">OOS_PRODUCT_BY_SCENETYPE_RE</t>
+    <t xml:space="preserve">OOS_PRODUCT_BY_STORE_LIST</t>
   </si>
   <si>
     <t xml:space="preserve">3=extra</t>
@@ -102,12 +114,15 @@
     <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_OWN_MANUFACTURER</t>
   </si>
   <si>
-    <t xml:space="preserve">Presence</t>
+    <t xml:space="preserve">Count</t>
   </si>
   <si>
     <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_ALL_MANUFACTURER</t>
   </si>
   <si>
+    <t xml:space="preserve">kpi_parent</t>
+  </si>
+  <si>
     <t xml:space="preserve">param_1</t>
   </si>
   <si>
@@ -132,94 +147,103 @@
     <t xml:space="preserve">param_4_value</t>
   </si>
   <si>
+    <t xml:space="preserve">numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer</t>
+  </si>
+  <si>
     <t xml:space="preserve">scene_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store</t>
+    <t xml:space="preserve">Treasury Wine Estates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Premise, Off Premise, Hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category</t>
   </si>
   <si>
     <t xml:space="preserve">lion</t>
   </si>
   <si>
-    <t xml:space="preserve">On Premise, Off Premise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DST_MANUFACTURER_BY_SCENE_TYPE_ASSORTMENT</t>
+    <t xml:space="preserve">store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Off Premise</t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUCT_PRESENCE_BY_SCENE_TYPE_ASSORTMENT</t>
-  </si>
-  <si>
     <t xml:space="preserve">list</t>
   </si>
   <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
     <t xml:space="preserve">category</t>
   </si>
   <si>
-    <t xml:space="preserve">Beer Tap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Premise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacking Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irrelevant Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category Exclude </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude</t>
+    <t xml:space="preserve">Wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write all 1,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write only 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_types_to_include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categories_to_exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ean_codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
   </si>
   <si>
     <t xml:space="preserve">Beer Tap Category</t>
@@ -232,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -254,8 +278,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +301,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC8F9D0"/>
+        <bgColor rgb="FFC5F9CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2E8FB"/>
+        <bgColor rgb="FFC8F9D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFBF5A4"/>
         <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF977D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8C9"/>
+        <bgColor rgb="FFFBF5A4"/>
       </patternFill>
     </fill>
     <fill>
@@ -282,30 +337,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFE9F9E2"/>
+        <fgColor rgb="FFC5F9CB"/>
+        <bgColor rgb="FFC8F9D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE9F9E2"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF69ABE"/>
+        <bgColor rgb="FFFF9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF99"/>
-        <bgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FFC5C2F5"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFFF977D"/>
+        <bgColor rgb="FFFF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -318,13 +379,6 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -353,7 +407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,7 +416,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,7 +424,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,47 +448,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,7 +520,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFBF5A4"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -451,12 +537,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFE9F9E2"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF8F8C9"/>
+      <rgbColor rgb="FFC5F9CB"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF977D"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFC5C2F5"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -466,15 +552,15 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFFBF5A4"/>
+      <rgbColor rgb="FFC2E8FB"/>
+      <rgbColor rgb="FFC8F9D0"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FF66FFFF"/>
+      <rgbColor rgb="FFF69ABE"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF66FF99"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -502,17 +588,16 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,130 +607,196 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
+      <c r="A7" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+      <c r="A8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
+      <c r="A9" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
+      <c r="A10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="H10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
+      <c r="A11" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D11" s="5"/>
+      <c r="H11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
+      <c r="A12" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
+      <c r="A13" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="H13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
+      <c r="A14" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
+      <c r="A15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B9"/>
+    <mergeCell ref="H5:I6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
@@ -665,68 +816,78 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI15"/>
+  <dimension ref="A1:AMI32"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O10" activeCellId="0" sqref="O10"/>
+      <selection pane="topRight" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="2" style="6" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1023" min="14" style="6" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="13" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="13" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="13" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="13" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="P1" s="0"/>
       <c r="Q1" s="0"/>
@@ -1738,40 +1899,38 @@
       <c r="AMI1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="D2" s="17" t="s">
         <v>47</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
@@ -2783,36 +2942,38 @@
       <c r="AMI2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="10"/>
-      <c r="K3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="D3" s="17" t="s">
         <v>47</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
@@ -3824,361 +3985,485 @@
       <c r="AMI3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="10"/>
-      <c r="K4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="D4" s="17" t="s">
         <v>47</v>
       </c>
+      <c r="E4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="10"/>
-      <c r="K5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="N6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="D7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="M10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
-      <c r="K6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="6" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="6" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-      <c r="K7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="10"/>
-      <c r="K8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-      <c r="K9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-      <c r="K10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="10"/>
-      <c r="K11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="10"/>
-      <c r="K12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="M13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="10"/>
-      <c r="K13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>54</v>
+      <c r="O13" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="K14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>47</v>
+      <c r="N14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="K15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>47</v>
+      <c r="N15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4197,314 +4482,400 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="22" customFormat="true" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>63</v>
+      <c r="B1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>66</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>66</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -9,8 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="details" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="exclude_include" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="assortment" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="details" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="exclude_include" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -51,75 +52,84 @@
     <t xml:space="preserve">FSOS_ALL_MAN_ALL_SCENETYPE_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">FSOS_OWN_MAN_ALL_SUBCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT_ALL_BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT_ALL_BRAND_ALL_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_OWN_MANUFACTURER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_ALL_MANUFACTURER</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add necessary scene types in details sheet</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_OWN_MAN_ALL_SUBCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT_ALL_BRAND</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sku = product</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT_ALL_BRAND_ALL_SKU</t>
+    <t xml:space="preserve">assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 = oos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not present items in assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 = distributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">present in scene/session/store which is in assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3=extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra items not in assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_family_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opposite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_family_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DST_MAN_BY_STORE_PERC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOS_MAN_BY_STORE_PERC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT_PRESENCE_BY_STORE_LIST</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DST_MAN_BY_STORE_PERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 = oos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not present items in assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOS_MAN_BY_STORE_PERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 = distributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">present in scene/session/store which is in assortment</t>
-  </si>
-  <si>
     <t xml:space="preserve">OOS_PRODUCT_BY_STORE_LIST</t>
   </si>
   <si>
-    <t xml:space="preserve">3=extra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra items not in assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_OWN_MANUFACTURER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_ALL_MANUFACTURER</t>
-  </si>
-  <si>
     <t xml:space="preserve">kpi_parent</t>
   </si>
   <si>
@@ -190,9 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve">store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Off Premise</t>
@@ -407,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,12 +439,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -452,12 +463,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -585,19 +600,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,26 +669,20 @@
         <v>5</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="H5" s="6" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
+      <c r="A7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -680,126 +691,102 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
+      <c r="A8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
+      <c r="A9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="H10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="H11" s="8" t="s">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="11" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="H12" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="H13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="H5:I6"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D25:E26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -816,31 +803,119 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI32"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="13" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="13" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="13" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="16" style="13" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="30.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMI32"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C36" activeCellId="0" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="66.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="20.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="15" width="13.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="15" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="15" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="15" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="15" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="15" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,46 +923,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="P1" s="0"/>
       <c r="Q1" s="0"/>
@@ -1902,35 +1977,35 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
@@ -2945,35 +3020,35 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
@@ -3988,482 +4063,534 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="C4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="L10" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="M10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="7" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="12" t="s">
+      <c r="N14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="O15" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
     </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+    </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>61</v>
+      <c r="B27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>62</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>23</v>
+      <c r="C30" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13" t="n">
+      <c r="B31" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>63</v>
+      <c r="C31" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>64</v>
+      <c r="C32" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4490,392 +4617,390 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="true" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="24" customFormat="true" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>70</v>
       </c>
+      <c r="F1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="n">
+      <c r="F9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C10" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="24" t="n">
+      <c r="F10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="24" t="n">
+      <c r="F11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="24" t="n">
+      <c r="C12" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="24" t="n">
+      <c r="D12" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E12" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="11" t="n">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="11" t="n">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -73,63 +73,24 @@
     <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_ALL_MANUFACTURER</t>
   </si>
   <si>
-    <t xml:space="preserve">Add necessary scene types in details sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sku = product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 = oos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not present items in assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 = distributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">present in scene/session/store which is in assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3=extra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra items not in assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpi_family_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opposite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpi_family_2</t>
+    <t xml:space="preserve">related</t>
   </si>
   <si>
     <t xml:space="preserve">DST_MAN_BY_STORE_PERC</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribution</t>
+    <t xml:space="preserve">PRODUCT_PRESENCE_BY_STORE_LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOS_PRODUCT_BY_STORE_LIST</t>
   </si>
   <si>
     <t xml:space="preserve">OOS_MAN_BY_STORE_PERC</t>
   </si>
   <si>
-    <t xml:space="preserve">OOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT_PRESENCE_BY_STORE_LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOS_PRODUCT_BY_STORE_LIST</t>
-  </si>
-  <si>
     <t xml:space="preserve">kpi_parent</t>
   </si>
   <si>
@@ -169,9 +130,6 @@
     <t xml:space="preserve">context</t>
   </si>
   <si>
-    <t xml:space="preserve">output</t>
-  </si>
-  <si>
     <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
@@ -184,9 +142,6 @@
     <t xml:space="preserve">On Premise, Off Premise, Hybrid</t>
   </si>
   <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
     <t xml:space="preserve">brand</t>
   </si>
   <si>
@@ -202,28 +157,10 @@
     <t xml:space="preserve">store</t>
   </si>
   <si>
-    <t xml:space="preserve">Off Premise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list</t>
-  </si>
-  <si>
     <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">Wine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write all 1,2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write only 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distributed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extra</t>
   </si>
   <si>
     <t xml:space="preserve">stacking</t>
@@ -263,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -285,15 +222,8 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +250,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBF5A4"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
         <bgColor rgb="FFFF977D"/>
       </patternFill>
@@ -333,13 +257,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8C9"/>
-        <bgColor rgb="FFFBF5A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFBF5A4"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -364,12 +282,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF977D"/>
         <bgColor rgb="FFFF9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,32 +359,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -481,6 +373,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -492,14 +392,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,10 +411,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -535,7 +423,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFBF5A4"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -570,7 +458,7 @@
       <rgbColor rgb="FFC2E8FB"/>
       <rgbColor rgb="FFC8F9D0"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF66FFFF"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFF69ABE"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFF9999"/>
@@ -600,21 +488,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,61 +618,10 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D25:E26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -803,18 +638,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="30.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,57 +656,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -891,79 +711,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI32"/>
+  <dimension ref="A1:AMH11"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="66.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="20.3112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="15" width="13.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="15" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="15" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="15" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="15" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="16" style="15" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="66.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="45.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="10" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="10" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="10" width="13.5"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="10" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="10" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="10" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.20918367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>48</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="0"/>
       <c r="P1" s="0"/>
       <c r="Q1" s="0"/>
       <c r="R1" s="0"/>
@@ -1971,42 +1788,39 @@
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="O2" s="0"/>
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
@@ -3014,42 +2828,39 @@
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="C3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="O3" s="0"/>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
@@ -4057,43 +3868,39 @@
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,36 +3910,33 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
+      <c r="C5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,34 +3944,31 @@
         <v>9</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,32 +3978,29 @@
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,34 +4010,31 @@
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,348 +4044,99 @@
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
+      <c r="C9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>53</v>
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>66</v>
+      <c r="B11" s="7"/>
+      <c r="C11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4609,50 +4155,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.015306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="20.25"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="true" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="19" customFormat="true" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>72</v>
+      <c r="B1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -4697,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -4722,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -4747,13 +4295,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -4772,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -4797,13 +4345,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -4822,14 +4370,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -4848,159 +4396,59 @@
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="26" t="n">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="n">
+      <c r="C10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="26" t="n">
+      <c r="D10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="26" t="n">
+      <c r="E10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="26" t="n">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="26" t="n">
+      <c r="C11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="26" t="n">
+      <c r="D11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="assortment" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="details" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="exclude_include" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="details" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="exclude_include" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -40,7 +39,7 @@
     <t xml:space="preserve">FSOS</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">FSOS_ALL_MAN_ALL_SCENETYPE</t>
@@ -52,16 +51,16 @@
     <t xml:space="preserve">FSOS_ALL_MAN_ALL_SCENETYPE_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_OWN_MAN_ALL_SUBCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT_ALL_BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_SUBCAT_ALL_BRAND_ALL_SKU</t>
+    <t xml:space="preserve">FSOS_OWN_MAN_ALL_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_OWN_MANUFACTURER</t>
@@ -73,24 +72,6 @@
     <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_ALL_MANUFACTURER</t>
   </si>
   <si>
-    <t xml:space="preserve">related</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DST_MAN_BY_STORE_PERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT_PRESENCE_BY_STORE_LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOS_PRODUCT_BY_STORE_LIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOS_MAN_BY_STORE_PERC</t>
-  </si>
-  <si>
     <t xml:space="preserve">kpi_parent</t>
   </si>
   <si>
@@ -136,10 +117,10 @@
     <t xml:space="preserve">scene_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Treasury Wine Estates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Premise, Off Premise, Hybrid</t>
+    <t xml:space="preserve">Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off premise, on premise</t>
   </si>
   <si>
     <t xml:space="preserve">brand</t>
@@ -148,19 +129,16 @@
     <t xml:space="preserve">sku</t>
   </si>
   <si>
-    <t xml:space="preserve">sub_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lion</t>
+    <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">store</t>
   </si>
   <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wine</t>
+    <t xml:space="preserve">Beer Tap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on premise</t>
   </si>
   <si>
     <t xml:space="preserve">stacking</t>
@@ -175,22 +153,16 @@
     <t xml:space="preserve">empty</t>
   </si>
   <si>
-    <t xml:space="preserve">scene_types_to_include</t>
+    <t xml:space="preserve">scene_types_to_exclude</t>
   </si>
   <si>
     <t xml:space="preserve">categories_to_exclude</t>
   </si>
   <si>
-    <t xml:space="preserve">brands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ean_codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beer Tap Category</t>
+    <t xml:space="preserve">brands_to_exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ean_codes_to_exclude</t>
   </si>
 </sst>
 </file>
@@ -223,7 +195,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,18 +222,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFF977D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8C9"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC5F9CB"/>
         <bgColor rgb="FFC8F9D0"/>
       </patternFill>
@@ -269,7 +229,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF69ABE"/>
-        <bgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF977D"/>
       </patternFill>
     </fill>
     <fill>
@@ -281,7 +241,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF977D"/>
-        <bgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFF69ABE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8C9"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,14 +325,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,6 +334,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -391,7 +357,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,11 +370,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -461,7 +447,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFF69ABE"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFF9999"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -491,16 +477,17 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,17 +625,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:AMH11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="57.5051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,126 +656,40 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMH11"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B14" activeCellId="0" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="66.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="45.3214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="10" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="10" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="10" width="13.5"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="10" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="10" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="10" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.20918367346939"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
@@ -1793,32 +1704,32 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
@@ -2833,32 +2744,32 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
@@ -3873,34 +3784,34 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,33 +3821,33 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,167 +3855,167 @@
         <v>9</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>43</v>
+      <c r="M6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>43</v>
+      <c r="M7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="L10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>43</v>
+      <c r="N10" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,31 +4023,31 @@
         <v>15</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="L11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>43</v>
+      <c r="N11" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4158,297 +4069,268 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.015306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="20.25"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="61.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="22.6224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="23.4591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="22.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="26.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="16" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="20"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -33,13 +33,16 @@
     <t xml:space="preserve">active</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_OWN_MAN_ALL_SCENETYPE</t>
+    <t xml:space="preserve">FSOS_OWN_MANUFACTURER_IN_WHOLE_STORE</t>
   </si>
   <si>
     <t xml:space="preserve">FSOS</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_OWN_MAN_ALL_SCENETYPE</t>
   </si>
   <si>
     <t xml:space="preserve">FSOS_ALL_MAN_ALL_SCENETYPE</t>
@@ -114,13 +117,16 @@
     <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">scene_type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lion</t>
   </si>
   <si>
+    <t xml:space="preserve">store</t>
+  </si>
+  <si>
     <t xml:space="preserve">off premise, on premise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_type</t>
   </si>
   <si>
     <t xml:space="preserve">brand</t>
@@ -130,9 +136,6 @@
   </si>
   <si>
     <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store</t>
   </si>
   <si>
     <t xml:space="preserve">Beer Tap</t>
@@ -292,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,10 +334,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -474,19 +473,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.5408163265306"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
@@ -511,7 +511,6 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -544,7 +543,7 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
@@ -584,12 +583,10 @@
       <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
@@ -597,18 +594,30 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -625,71 +634,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH11"/>
+  <dimension ref="A1:AMH12"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topRight" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="47.3928571428572"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
@@ -1701,35 +1714,33 @@
       <c r="AMH1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
@@ -2741,35 +2752,37 @@
       <c r="AMH2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
@@ -3781,273 +3794,1313 @@
       <c r="AMH3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>33</v>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>36</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>29</v>
+      <c r="N8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="N9" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>29</v>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="M11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="15" t="s">
-        <v>36</v>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4066,271 +5119,1307 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="61.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="22.6224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="23.4591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="22.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="26.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="16" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>46</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
       <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="23" t="n">
+      <c r="E7" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="25"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="23" t="n">
+      <c r="A11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -481,12 +481,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.5051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0510204081633"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
@@ -639,25 +638,25 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topRight" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="47.3928571428572"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="67.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="47.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.6938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5122,21 +5121,21 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="6.88265306122449"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -6214,8 +6213,8 @@
       <c r="C3" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="n">
-        <v>0</v>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="22" t="n">
         <v>0</v>
@@ -6236,8 +6235,8 @@
       <c r="C4" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="n">
-        <v>0</v>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="22" t="n">
         <v>0</v>
@@ -6258,8 +6257,8 @@
       <c r="C5" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="n">
-        <v>0</v>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="22" t="n">
         <v>0</v>
@@ -6280,8 +6279,8 @@
       <c r="C6" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="n">
-        <v>0</v>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="22" t="n">
         <v>0</v>
@@ -6302,8 +6301,8 @@
       <c r="C7" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="n">
-        <v>0</v>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>0</v>
@@ -6324,8 +6323,8 @@
       <c r="C8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="22" t="n">
-        <v>0</v>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>0</v>
@@ -6346,8 +6345,8 @@
       <c r="C9" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="n">
-        <v>0</v>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>0</v>
@@ -6368,8 +6367,8 @@
       <c r="C10" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="22" t="n">
-        <v>0</v>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>0</v>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -481,12 +481,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,26 +637,22 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topRight" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="47.8571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="68.6938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="8" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="46.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="65.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,21 +5116,21 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="6.75"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -481,11 +481,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +633,7 @@
   </sheetPr>
   <dimension ref="A1:AMH12"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L13" activeCellId="0" sqref="L13"/>
@@ -642,17 +641,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="46.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="65.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="45.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="64.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,22 +5113,22 @@
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="8.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.87755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.50510204081633"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -6208,8 +6206,8 @@
       <c r="C3" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
+      <c r="D3" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="E3" s="22" t="n">
         <v>0</v>
@@ -6230,8 +6228,8 @@
       <c r="C4" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
+      <c r="D4" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="E4" s="22" t="n">
         <v>0</v>
@@ -6252,8 +6250,8 @@
       <c r="C5" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
+      <c r="D5" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="E5" s="22" t="n">
         <v>0</v>
@@ -6274,8 +6272,8 @@
       <c r="C6" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
+      <c r="D6" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="E6" s="22" t="n">
         <v>0</v>
@@ -6296,8 +6294,8 @@
       <c r="C7" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
+      <c r="D7" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>0</v>
@@ -6318,8 +6316,8 @@
       <c r="C8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
+      <c r="D8" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>0</v>
@@ -6340,8 +6338,8 @@
       <c r="C9" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
+      <c r="D9" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>0</v>
@@ -6362,8 +6360,8 @@
       <c r="C10" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
+      <c r="D10" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>0</v>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -476,15 +476,17 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D10 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,21 +638,22 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="topRight" activeCell="L13" activeCellId="1" sqref="D2:D10 L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="45.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="64.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="20.25"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,21 +5117,21 @@
   <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="8.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.87755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.44897959183673"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -6207,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="22" t="n">
         <v>0</v>
@@ -6229,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="22" t="n">
         <v>0</v>
@@ -6251,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="22" t="n">
         <v>0</v>
@@ -6273,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="22" t="n">
         <v>0</v>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>0</v>
@@ -6317,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>0</v>
@@ -6339,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>0</v>
@@ -6361,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>0</v>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -476,17 +476,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D10 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="N3 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,25 +634,25 @@
   </sheetPr>
   <dimension ref="A1:AMH12"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L13" activeCellId="1" sqref="D2:D10 L13"/>
+      <selection pane="topRight" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="20.25"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="62.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="13.5"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,7 +2776,7 @@
         <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
@@ -5116,22 +5115,22 @@
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="N3 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="54.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="20.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="52">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -57,13 +57,16 @@
     <t xml:space="preserve">FSOS_OWN_MAN_ALL_CAT</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT</t>
+    <t xml:space="preserve">FSOS_OWN_MAN_ALL_CAT_ALL_SUBCAT</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND</t>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_SUBCAT</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND_ALL_SKU</t>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_SUBCAT_ALL_BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_SUBCAT_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_OWN_MANUFACTURER</t>
@@ -90,6 +93,9 @@
     <t xml:space="preserve">param_4</t>
   </si>
   <si>
+    <t xml:space="preserve">param_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">param_1_value</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">param_4_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_5_value</t>
   </si>
   <si>
     <t xml:space="preserve">numerator</t>
@@ -136,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category</t>
   </si>
   <si>
     <t xml:space="preserve">Beer Tap</t>
@@ -198,7 +210,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,13 +250,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5C2F5"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF977D"/>
         <bgColor rgb="FFF69ABE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFC5C2F5"/>
       </patternFill>
     </fill>
     <fill>
@@ -295,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,6 +374,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -388,10 +418,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,7 +447,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -473,19 +499,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="N3 B2"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,12 +618,10 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -604,18 +629,30 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -632,74 +669,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH12"/>
+  <dimension ref="1:13"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="62.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="13.5"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="65.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="8" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="8" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="8" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q1" s="0"/>
       <c r="R1" s="0"/>
       <c r="S1" s="0"/>
@@ -1706,6 +1748,8 @@
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
@@ -1713,31 +1757,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
+        <v>35</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
@@ -2744,6 +2788,8 @@
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
@@ -2753,33 +2799,33 @@
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
+        <v>37</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
       <c r="S3" s="0"/>
@@ -3786,6 +3832,8 @@
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
@@ -3795,31 +3843,31 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
+        <v>37</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
       <c r="S4" s="0"/>
@@ -4826,6 +4874,8 @@
       <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
@@ -4835,31 +4885,1041 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IP5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
+      <c r="IU5" s="0"/>
+      <c r="IV5" s="0"/>
+      <c r="IW5" s="0"/>
+      <c r="IX5" s="0"/>
+      <c r="IY5" s="0"/>
+      <c r="IZ5" s="0"/>
+      <c r="JA5" s="0"/>
+      <c r="JB5" s="0"/>
+      <c r="JC5" s="0"/>
+      <c r="JD5" s="0"/>
+      <c r="JE5" s="0"/>
+      <c r="JF5" s="0"/>
+      <c r="JG5" s="0"/>
+      <c r="JH5" s="0"/>
+      <c r="JI5" s="0"/>
+      <c r="JJ5" s="0"/>
+      <c r="JK5" s="0"/>
+      <c r="JL5" s="0"/>
+      <c r="JM5" s="0"/>
+      <c r="JN5" s="0"/>
+      <c r="JO5" s="0"/>
+      <c r="JP5" s="0"/>
+      <c r="JQ5" s="0"/>
+      <c r="JR5" s="0"/>
+      <c r="JS5" s="0"/>
+      <c r="JT5" s="0"/>
+      <c r="JU5" s="0"/>
+      <c r="JV5" s="0"/>
+      <c r="JW5" s="0"/>
+      <c r="JX5" s="0"/>
+      <c r="JY5" s="0"/>
+      <c r="JZ5" s="0"/>
+      <c r="KA5" s="0"/>
+      <c r="KB5" s="0"/>
+      <c r="KC5" s="0"/>
+      <c r="KD5" s="0"/>
+      <c r="KE5" s="0"/>
+      <c r="KF5" s="0"/>
+      <c r="KG5" s="0"/>
+      <c r="KH5" s="0"/>
+      <c r="KI5" s="0"/>
+      <c r="KJ5" s="0"/>
+      <c r="KK5" s="0"/>
+      <c r="KL5" s="0"/>
+      <c r="KM5" s="0"/>
+      <c r="KN5" s="0"/>
+      <c r="KO5" s="0"/>
+      <c r="KP5" s="0"/>
+      <c r="KQ5" s="0"/>
+      <c r="KR5" s="0"/>
+      <c r="KS5" s="0"/>
+      <c r="KT5" s="0"/>
+      <c r="KU5" s="0"/>
+      <c r="KV5" s="0"/>
+      <c r="KW5" s="0"/>
+      <c r="KX5" s="0"/>
+      <c r="KY5" s="0"/>
+      <c r="KZ5" s="0"/>
+      <c r="LA5" s="0"/>
+      <c r="LB5" s="0"/>
+      <c r="LC5" s="0"/>
+      <c r="LD5" s="0"/>
+      <c r="LE5" s="0"/>
+      <c r="LF5" s="0"/>
+      <c r="LG5" s="0"/>
+      <c r="LH5" s="0"/>
+      <c r="LI5" s="0"/>
+      <c r="LJ5" s="0"/>
+      <c r="LK5" s="0"/>
+      <c r="LL5" s="0"/>
+      <c r="LM5" s="0"/>
+      <c r="LN5" s="0"/>
+      <c r="LO5" s="0"/>
+      <c r="LP5" s="0"/>
+      <c r="LQ5" s="0"/>
+      <c r="LR5" s="0"/>
+      <c r="LS5" s="0"/>
+      <c r="LT5" s="0"/>
+      <c r="LU5" s="0"/>
+      <c r="LV5" s="0"/>
+      <c r="LW5" s="0"/>
+      <c r="LX5" s="0"/>
+      <c r="LY5" s="0"/>
+      <c r="LZ5" s="0"/>
+      <c r="MA5" s="0"/>
+      <c r="MB5" s="0"/>
+      <c r="MC5" s="0"/>
+      <c r="MD5" s="0"/>
+      <c r="ME5" s="0"/>
+      <c r="MF5" s="0"/>
+      <c r="MG5" s="0"/>
+      <c r="MH5" s="0"/>
+      <c r="MI5" s="0"/>
+      <c r="MJ5" s="0"/>
+      <c r="MK5" s="0"/>
+      <c r="ML5" s="0"/>
+      <c r="MM5" s="0"/>
+      <c r="MN5" s="0"/>
+      <c r="MO5" s="0"/>
+      <c r="MP5" s="0"/>
+      <c r="MQ5" s="0"/>
+      <c r="MR5" s="0"/>
+      <c r="MS5" s="0"/>
+      <c r="MT5" s="0"/>
+      <c r="MU5" s="0"/>
+      <c r="MV5" s="0"/>
+      <c r="MW5" s="0"/>
+      <c r="MX5" s="0"/>
+      <c r="MY5" s="0"/>
+      <c r="MZ5" s="0"/>
+      <c r="NA5" s="0"/>
+      <c r="NB5" s="0"/>
+      <c r="NC5" s="0"/>
+      <c r="ND5" s="0"/>
+      <c r="NE5" s="0"/>
+      <c r="NF5" s="0"/>
+      <c r="NG5" s="0"/>
+      <c r="NH5" s="0"/>
+      <c r="NI5" s="0"/>
+      <c r="NJ5" s="0"/>
+      <c r="NK5" s="0"/>
+      <c r="NL5" s="0"/>
+      <c r="NM5" s="0"/>
+      <c r="NN5" s="0"/>
+      <c r="NO5" s="0"/>
+      <c r="NP5" s="0"/>
+      <c r="NQ5" s="0"/>
+      <c r="NR5" s="0"/>
+      <c r="NS5" s="0"/>
+      <c r="NT5" s="0"/>
+      <c r="NU5" s="0"/>
+      <c r="NV5" s="0"/>
+      <c r="NW5" s="0"/>
+      <c r="NX5" s="0"/>
+      <c r="NY5" s="0"/>
+      <c r="NZ5" s="0"/>
+      <c r="OA5" s="0"/>
+      <c r="OB5" s="0"/>
+      <c r="OC5" s="0"/>
+      <c r="OD5" s="0"/>
+      <c r="OE5" s="0"/>
+      <c r="OF5" s="0"/>
+      <c r="OG5" s="0"/>
+      <c r="OH5" s="0"/>
+      <c r="OI5" s="0"/>
+      <c r="OJ5" s="0"/>
+      <c r="OK5" s="0"/>
+      <c r="OL5" s="0"/>
+      <c r="OM5" s="0"/>
+      <c r="ON5" s="0"/>
+      <c r="OO5" s="0"/>
+      <c r="OP5" s="0"/>
+      <c r="OQ5" s="0"/>
+      <c r="OR5" s="0"/>
+      <c r="OS5" s="0"/>
+      <c r="OT5" s="0"/>
+      <c r="OU5" s="0"/>
+      <c r="OV5" s="0"/>
+      <c r="OW5" s="0"/>
+      <c r="OX5" s="0"/>
+      <c r="OY5" s="0"/>
+      <c r="OZ5" s="0"/>
+      <c r="PA5" s="0"/>
+      <c r="PB5" s="0"/>
+      <c r="PC5" s="0"/>
+      <c r="PD5" s="0"/>
+      <c r="PE5" s="0"/>
+      <c r="PF5" s="0"/>
+      <c r="PG5" s="0"/>
+      <c r="PH5" s="0"/>
+      <c r="PI5" s="0"/>
+      <c r="PJ5" s="0"/>
+      <c r="PK5" s="0"/>
+      <c r="PL5" s="0"/>
+      <c r="PM5" s="0"/>
+      <c r="PN5" s="0"/>
+      <c r="PO5" s="0"/>
+      <c r="PP5" s="0"/>
+      <c r="PQ5" s="0"/>
+      <c r="PR5" s="0"/>
+      <c r="PS5" s="0"/>
+      <c r="PT5" s="0"/>
+      <c r="PU5" s="0"/>
+      <c r="PV5" s="0"/>
+      <c r="PW5" s="0"/>
+      <c r="PX5" s="0"/>
+      <c r="PY5" s="0"/>
+      <c r="PZ5" s="0"/>
+      <c r="QA5" s="0"/>
+      <c r="QB5" s="0"/>
+      <c r="QC5" s="0"/>
+      <c r="QD5" s="0"/>
+      <c r="QE5" s="0"/>
+      <c r="QF5" s="0"/>
+      <c r="QG5" s="0"/>
+      <c r="QH5" s="0"/>
+      <c r="QI5" s="0"/>
+      <c r="QJ5" s="0"/>
+      <c r="QK5" s="0"/>
+      <c r="QL5" s="0"/>
+      <c r="QM5" s="0"/>
+      <c r="QN5" s="0"/>
+      <c r="QO5" s="0"/>
+      <c r="QP5" s="0"/>
+      <c r="QQ5" s="0"/>
+      <c r="QR5" s="0"/>
+      <c r="QS5" s="0"/>
+      <c r="QT5" s="0"/>
+      <c r="QU5" s="0"/>
+      <c r="QV5" s="0"/>
+      <c r="QW5" s="0"/>
+      <c r="QX5" s="0"/>
+      <c r="QY5" s="0"/>
+      <c r="QZ5" s="0"/>
+      <c r="RA5" s="0"/>
+      <c r="RB5" s="0"/>
+      <c r="RC5" s="0"/>
+      <c r="RD5" s="0"/>
+      <c r="RE5" s="0"/>
+      <c r="RF5" s="0"/>
+      <c r="RG5" s="0"/>
+      <c r="RH5" s="0"/>
+      <c r="RI5" s="0"/>
+      <c r="RJ5" s="0"/>
+      <c r="RK5" s="0"/>
+      <c r="RL5" s="0"/>
+      <c r="RM5" s="0"/>
+      <c r="RN5" s="0"/>
+      <c r="RO5" s="0"/>
+      <c r="RP5" s="0"/>
+      <c r="RQ5" s="0"/>
+      <c r="RR5" s="0"/>
+      <c r="RS5" s="0"/>
+      <c r="RT5" s="0"/>
+      <c r="RU5" s="0"/>
+      <c r="RV5" s="0"/>
+      <c r="RW5" s="0"/>
+      <c r="RX5" s="0"/>
+      <c r="RY5" s="0"/>
+      <c r="RZ5" s="0"/>
+      <c r="SA5" s="0"/>
+      <c r="SB5" s="0"/>
+      <c r="SC5" s="0"/>
+      <c r="SD5" s="0"/>
+      <c r="SE5" s="0"/>
+      <c r="SF5" s="0"/>
+      <c r="SG5" s="0"/>
+      <c r="SH5" s="0"/>
+      <c r="SI5" s="0"/>
+      <c r="SJ5" s="0"/>
+      <c r="SK5" s="0"/>
+      <c r="SL5" s="0"/>
+      <c r="SM5" s="0"/>
+      <c r="SN5" s="0"/>
+      <c r="SO5" s="0"/>
+      <c r="SP5" s="0"/>
+      <c r="SQ5" s="0"/>
+      <c r="SR5" s="0"/>
+      <c r="SS5" s="0"/>
+      <c r="ST5" s="0"/>
+      <c r="SU5" s="0"/>
+      <c r="SV5" s="0"/>
+      <c r="SW5" s="0"/>
+      <c r="SX5" s="0"/>
+      <c r="SY5" s="0"/>
+      <c r="SZ5" s="0"/>
+      <c r="TA5" s="0"/>
+      <c r="TB5" s="0"/>
+      <c r="TC5" s="0"/>
+      <c r="TD5" s="0"/>
+      <c r="TE5" s="0"/>
+      <c r="TF5" s="0"/>
+      <c r="TG5" s="0"/>
+      <c r="TH5" s="0"/>
+      <c r="TI5" s="0"/>
+      <c r="TJ5" s="0"/>
+      <c r="TK5" s="0"/>
+      <c r="TL5" s="0"/>
+      <c r="TM5" s="0"/>
+      <c r="TN5" s="0"/>
+      <c r="TO5" s="0"/>
+      <c r="TP5" s="0"/>
+      <c r="TQ5" s="0"/>
+      <c r="TR5" s="0"/>
+      <c r="TS5" s="0"/>
+      <c r="TT5" s="0"/>
+      <c r="TU5" s="0"/>
+      <c r="TV5" s="0"/>
+      <c r="TW5" s="0"/>
+      <c r="TX5" s="0"/>
+      <c r="TY5" s="0"/>
+      <c r="TZ5" s="0"/>
+      <c r="UA5" s="0"/>
+      <c r="UB5" s="0"/>
+      <c r="UC5" s="0"/>
+      <c r="UD5" s="0"/>
+      <c r="UE5" s="0"/>
+      <c r="UF5" s="0"/>
+      <c r="UG5" s="0"/>
+      <c r="UH5" s="0"/>
+      <c r="UI5" s="0"/>
+      <c r="UJ5" s="0"/>
+      <c r="UK5" s="0"/>
+      <c r="UL5" s="0"/>
+      <c r="UM5" s="0"/>
+      <c r="UN5" s="0"/>
+      <c r="UO5" s="0"/>
+      <c r="UP5" s="0"/>
+      <c r="UQ5" s="0"/>
+      <c r="UR5" s="0"/>
+      <c r="US5" s="0"/>
+      <c r="UT5" s="0"/>
+      <c r="UU5" s="0"/>
+      <c r="UV5" s="0"/>
+      <c r="UW5" s="0"/>
+      <c r="UX5" s="0"/>
+      <c r="UY5" s="0"/>
+      <c r="UZ5" s="0"/>
+      <c r="VA5" s="0"/>
+      <c r="VB5" s="0"/>
+      <c r="VC5" s="0"/>
+      <c r="VD5" s="0"/>
+      <c r="VE5" s="0"/>
+      <c r="VF5" s="0"/>
+      <c r="VG5" s="0"/>
+      <c r="VH5" s="0"/>
+      <c r="VI5" s="0"/>
+      <c r="VJ5" s="0"/>
+      <c r="VK5" s="0"/>
+      <c r="VL5" s="0"/>
+      <c r="VM5" s="0"/>
+      <c r="VN5" s="0"/>
+      <c r="VO5" s="0"/>
+      <c r="VP5" s="0"/>
+      <c r="VQ5" s="0"/>
+      <c r="VR5" s="0"/>
+      <c r="VS5" s="0"/>
+      <c r="VT5" s="0"/>
+      <c r="VU5" s="0"/>
+      <c r="VV5" s="0"/>
+      <c r="VW5" s="0"/>
+      <c r="VX5" s="0"/>
+      <c r="VY5" s="0"/>
+      <c r="VZ5" s="0"/>
+      <c r="WA5" s="0"/>
+      <c r="WB5" s="0"/>
+      <c r="WC5" s="0"/>
+      <c r="WD5" s="0"/>
+      <c r="WE5" s="0"/>
+      <c r="WF5" s="0"/>
+      <c r="WG5" s="0"/>
+      <c r="WH5" s="0"/>
+      <c r="WI5" s="0"/>
+      <c r="WJ5" s="0"/>
+      <c r="WK5" s="0"/>
+      <c r="WL5" s="0"/>
+      <c r="WM5" s="0"/>
+      <c r="WN5" s="0"/>
+      <c r="WO5" s="0"/>
+      <c r="WP5" s="0"/>
+      <c r="WQ5" s="0"/>
+      <c r="WR5" s="0"/>
+      <c r="WS5" s="0"/>
+      <c r="WT5" s="0"/>
+      <c r="WU5" s="0"/>
+      <c r="WV5" s="0"/>
+      <c r="WW5" s="0"/>
+      <c r="WX5" s="0"/>
+      <c r="WY5" s="0"/>
+      <c r="WZ5" s="0"/>
+      <c r="XA5" s="0"/>
+      <c r="XB5" s="0"/>
+      <c r="XC5" s="0"/>
+      <c r="XD5" s="0"/>
+      <c r="XE5" s="0"/>
+      <c r="XF5" s="0"/>
+      <c r="XG5" s="0"/>
+      <c r="XH5" s="0"/>
+      <c r="XI5" s="0"/>
+      <c r="XJ5" s="0"/>
+      <c r="XK5" s="0"/>
+      <c r="XL5" s="0"/>
+      <c r="XM5" s="0"/>
+      <c r="XN5" s="0"/>
+      <c r="XO5" s="0"/>
+      <c r="XP5" s="0"/>
+      <c r="XQ5" s="0"/>
+      <c r="XR5" s="0"/>
+      <c r="XS5" s="0"/>
+      <c r="XT5" s="0"/>
+      <c r="XU5" s="0"/>
+      <c r="XV5" s="0"/>
+      <c r="XW5" s="0"/>
+      <c r="XX5" s="0"/>
+      <c r="XY5" s="0"/>
+      <c r="XZ5" s="0"/>
+      <c r="YA5" s="0"/>
+      <c r="YB5" s="0"/>
+      <c r="YC5" s="0"/>
+      <c r="YD5" s="0"/>
+      <c r="YE5" s="0"/>
+      <c r="YF5" s="0"/>
+      <c r="YG5" s="0"/>
+      <c r="YH5" s="0"/>
+      <c r="YI5" s="0"/>
+      <c r="YJ5" s="0"/>
+      <c r="YK5" s="0"/>
+      <c r="YL5" s="0"/>
+      <c r="YM5" s="0"/>
+      <c r="YN5" s="0"/>
+      <c r="YO5" s="0"/>
+      <c r="YP5" s="0"/>
+      <c r="YQ5" s="0"/>
+      <c r="YR5" s="0"/>
+      <c r="YS5" s="0"/>
+      <c r="YT5" s="0"/>
+      <c r="YU5" s="0"/>
+      <c r="YV5" s="0"/>
+      <c r="YW5" s="0"/>
+      <c r="YX5" s="0"/>
+      <c r="YY5" s="0"/>
+      <c r="YZ5" s="0"/>
+      <c r="ZA5" s="0"/>
+      <c r="ZB5" s="0"/>
+      <c r="ZC5" s="0"/>
+      <c r="ZD5" s="0"/>
+      <c r="ZE5" s="0"/>
+      <c r="ZF5" s="0"/>
+      <c r="ZG5" s="0"/>
+      <c r="ZH5" s="0"/>
+      <c r="ZI5" s="0"/>
+      <c r="ZJ5" s="0"/>
+      <c r="ZK5" s="0"/>
+      <c r="ZL5" s="0"/>
+      <c r="ZM5" s="0"/>
+      <c r="ZN5" s="0"/>
+      <c r="ZO5" s="0"/>
+      <c r="ZP5" s="0"/>
+      <c r="ZQ5" s="0"/>
+      <c r="ZR5" s="0"/>
+      <c r="ZS5" s="0"/>
+      <c r="ZT5" s="0"/>
+      <c r="ZU5" s="0"/>
+      <c r="ZV5" s="0"/>
+      <c r="ZW5" s="0"/>
+      <c r="ZX5" s="0"/>
+      <c r="ZY5" s="0"/>
+      <c r="ZZ5" s="0"/>
+      <c r="AAA5" s="0"/>
+      <c r="AAB5" s="0"/>
+      <c r="AAC5" s="0"/>
+      <c r="AAD5" s="0"/>
+      <c r="AAE5" s="0"/>
+      <c r="AAF5" s="0"/>
+      <c r="AAG5" s="0"/>
+      <c r="AAH5" s="0"/>
+      <c r="AAI5" s="0"/>
+      <c r="AAJ5" s="0"/>
+      <c r="AAK5" s="0"/>
+      <c r="AAL5" s="0"/>
+      <c r="AAM5" s="0"/>
+      <c r="AAN5" s="0"/>
+      <c r="AAO5" s="0"/>
+      <c r="AAP5" s="0"/>
+      <c r="AAQ5" s="0"/>
+      <c r="AAR5" s="0"/>
+      <c r="AAS5" s="0"/>
+      <c r="AAT5" s="0"/>
+      <c r="AAU5" s="0"/>
+      <c r="AAV5" s="0"/>
+      <c r="AAW5" s="0"/>
+      <c r="AAX5" s="0"/>
+      <c r="AAY5" s="0"/>
+      <c r="AAZ5" s="0"/>
+      <c r="ABA5" s="0"/>
+      <c r="ABB5" s="0"/>
+      <c r="ABC5" s="0"/>
+      <c r="ABD5" s="0"/>
+      <c r="ABE5" s="0"/>
+      <c r="ABF5" s="0"/>
+      <c r="ABG5" s="0"/>
+      <c r="ABH5" s="0"/>
+      <c r="ABI5" s="0"/>
+      <c r="ABJ5" s="0"/>
+      <c r="ABK5" s="0"/>
+      <c r="ABL5" s="0"/>
+      <c r="ABM5" s="0"/>
+      <c r="ABN5" s="0"/>
+      <c r="ABO5" s="0"/>
+      <c r="ABP5" s="0"/>
+      <c r="ABQ5" s="0"/>
+      <c r="ABR5" s="0"/>
+      <c r="ABS5" s="0"/>
+      <c r="ABT5" s="0"/>
+      <c r="ABU5" s="0"/>
+      <c r="ABV5" s="0"/>
+      <c r="ABW5" s="0"/>
+      <c r="ABX5" s="0"/>
+      <c r="ABY5" s="0"/>
+      <c r="ABZ5" s="0"/>
+      <c r="ACA5" s="0"/>
+      <c r="ACB5" s="0"/>
+      <c r="ACC5" s="0"/>
+      <c r="ACD5" s="0"/>
+      <c r="ACE5" s="0"/>
+      <c r="ACF5" s="0"/>
+      <c r="ACG5" s="0"/>
+      <c r="ACH5" s="0"/>
+      <c r="ACI5" s="0"/>
+      <c r="ACJ5" s="0"/>
+      <c r="ACK5" s="0"/>
+      <c r="ACL5" s="0"/>
+      <c r="ACM5" s="0"/>
+      <c r="ACN5" s="0"/>
+      <c r="ACO5" s="0"/>
+      <c r="ACP5" s="0"/>
+      <c r="ACQ5" s="0"/>
+      <c r="ACR5" s="0"/>
+      <c r="ACS5" s="0"/>
+      <c r="ACT5" s="0"/>
+      <c r="ACU5" s="0"/>
+      <c r="ACV5" s="0"/>
+      <c r="ACW5" s="0"/>
+      <c r="ACX5" s="0"/>
+      <c r="ACY5" s="0"/>
+      <c r="ACZ5" s="0"/>
+      <c r="ADA5" s="0"/>
+      <c r="ADB5" s="0"/>
+      <c r="ADC5" s="0"/>
+      <c r="ADD5" s="0"/>
+      <c r="ADE5" s="0"/>
+      <c r="ADF5" s="0"/>
+      <c r="ADG5" s="0"/>
+      <c r="ADH5" s="0"/>
+      <c r="ADI5" s="0"/>
+      <c r="ADJ5" s="0"/>
+      <c r="ADK5" s="0"/>
+      <c r="ADL5" s="0"/>
+      <c r="ADM5" s="0"/>
+      <c r="ADN5" s="0"/>
+      <c r="ADO5" s="0"/>
+      <c r="ADP5" s="0"/>
+      <c r="ADQ5" s="0"/>
+      <c r="ADR5" s="0"/>
+      <c r="ADS5" s="0"/>
+      <c r="ADT5" s="0"/>
+      <c r="ADU5" s="0"/>
+      <c r="ADV5" s="0"/>
+      <c r="ADW5" s="0"/>
+      <c r="ADX5" s="0"/>
+      <c r="ADY5" s="0"/>
+      <c r="ADZ5" s="0"/>
+      <c r="AEA5" s="0"/>
+      <c r="AEB5" s="0"/>
+      <c r="AEC5" s="0"/>
+      <c r="AED5" s="0"/>
+      <c r="AEE5" s="0"/>
+      <c r="AEF5" s="0"/>
+      <c r="AEG5" s="0"/>
+      <c r="AEH5" s="0"/>
+      <c r="AEI5" s="0"/>
+      <c r="AEJ5" s="0"/>
+      <c r="AEK5" s="0"/>
+      <c r="AEL5" s="0"/>
+      <c r="AEM5" s="0"/>
+      <c r="AEN5" s="0"/>
+      <c r="AEO5" s="0"/>
+      <c r="AEP5" s="0"/>
+      <c r="AEQ5" s="0"/>
+      <c r="AER5" s="0"/>
+      <c r="AES5" s="0"/>
+      <c r="AET5" s="0"/>
+      <c r="AEU5" s="0"/>
+      <c r="AEV5" s="0"/>
+      <c r="AEW5" s="0"/>
+      <c r="AEX5" s="0"/>
+      <c r="AEY5" s="0"/>
+      <c r="AEZ5" s="0"/>
+      <c r="AFA5" s="0"/>
+      <c r="AFB5" s="0"/>
+      <c r="AFC5" s="0"/>
+      <c r="AFD5" s="0"/>
+      <c r="AFE5" s="0"/>
+      <c r="AFF5" s="0"/>
+      <c r="AFG5" s="0"/>
+      <c r="AFH5" s="0"/>
+      <c r="AFI5" s="0"/>
+      <c r="AFJ5" s="0"/>
+      <c r="AFK5" s="0"/>
+      <c r="AFL5" s="0"/>
+      <c r="AFM5" s="0"/>
+      <c r="AFN5" s="0"/>
+      <c r="AFO5" s="0"/>
+      <c r="AFP5" s="0"/>
+      <c r="AFQ5" s="0"/>
+      <c r="AFR5" s="0"/>
+      <c r="AFS5" s="0"/>
+      <c r="AFT5" s="0"/>
+      <c r="AFU5" s="0"/>
+      <c r="AFV5" s="0"/>
+      <c r="AFW5" s="0"/>
+      <c r="AFX5" s="0"/>
+      <c r="AFY5" s="0"/>
+      <c r="AFZ5" s="0"/>
+      <c r="AGA5" s="0"/>
+      <c r="AGB5" s="0"/>
+      <c r="AGC5" s="0"/>
+      <c r="AGD5" s="0"/>
+      <c r="AGE5" s="0"/>
+      <c r="AGF5" s="0"/>
+      <c r="AGG5" s="0"/>
+      <c r="AGH5" s="0"/>
+      <c r="AGI5" s="0"/>
+      <c r="AGJ5" s="0"/>
+      <c r="AGK5" s="0"/>
+      <c r="AGL5" s="0"/>
+      <c r="AGM5" s="0"/>
+      <c r="AGN5" s="0"/>
+      <c r="AGO5" s="0"/>
+      <c r="AGP5" s="0"/>
+      <c r="AGQ5" s="0"/>
+      <c r="AGR5" s="0"/>
+      <c r="AGS5" s="0"/>
+      <c r="AGT5" s="0"/>
+      <c r="AGU5" s="0"/>
+      <c r="AGV5" s="0"/>
+      <c r="AGW5" s="0"/>
+      <c r="AGX5" s="0"/>
+      <c r="AGY5" s="0"/>
+      <c r="AGZ5" s="0"/>
+      <c r="AHA5" s="0"/>
+      <c r="AHB5" s="0"/>
+      <c r="AHC5" s="0"/>
+      <c r="AHD5" s="0"/>
+      <c r="AHE5" s="0"/>
+      <c r="AHF5" s="0"/>
+      <c r="AHG5" s="0"/>
+      <c r="AHH5" s="0"/>
+      <c r="AHI5" s="0"/>
+      <c r="AHJ5" s="0"/>
+      <c r="AHK5" s="0"/>
+      <c r="AHL5" s="0"/>
+      <c r="AHM5" s="0"/>
+      <c r="AHN5" s="0"/>
+      <c r="AHO5" s="0"/>
+      <c r="AHP5" s="0"/>
+      <c r="AHQ5" s="0"/>
+      <c r="AHR5" s="0"/>
+      <c r="AHS5" s="0"/>
+      <c r="AHT5" s="0"/>
+      <c r="AHU5" s="0"/>
+      <c r="AHV5" s="0"/>
+      <c r="AHW5" s="0"/>
+      <c r="AHX5" s="0"/>
+      <c r="AHY5" s="0"/>
+      <c r="AHZ5" s="0"/>
+      <c r="AIA5" s="0"/>
+      <c r="AIB5" s="0"/>
+      <c r="AIC5" s="0"/>
+      <c r="AID5" s="0"/>
+      <c r="AIE5" s="0"/>
+      <c r="AIF5" s="0"/>
+      <c r="AIG5" s="0"/>
+      <c r="AIH5" s="0"/>
+      <c r="AII5" s="0"/>
+      <c r="AIJ5" s="0"/>
+      <c r="AIK5" s="0"/>
+      <c r="AIL5" s="0"/>
+      <c r="AIM5" s="0"/>
+      <c r="AIN5" s="0"/>
+      <c r="AIO5" s="0"/>
+      <c r="AIP5" s="0"/>
+      <c r="AIQ5" s="0"/>
+      <c r="AIR5" s="0"/>
+      <c r="AIS5" s="0"/>
+      <c r="AIT5" s="0"/>
+      <c r="AIU5" s="0"/>
+      <c r="AIV5" s="0"/>
+      <c r="AIW5" s="0"/>
+      <c r="AIX5" s="0"/>
+      <c r="AIY5" s="0"/>
+      <c r="AIZ5" s="0"/>
+      <c r="AJA5" s="0"/>
+      <c r="AJB5" s="0"/>
+      <c r="AJC5" s="0"/>
+      <c r="AJD5" s="0"/>
+      <c r="AJE5" s="0"/>
+      <c r="AJF5" s="0"/>
+      <c r="AJG5" s="0"/>
+      <c r="AJH5" s="0"/>
+      <c r="AJI5" s="0"/>
+      <c r="AJJ5" s="0"/>
+      <c r="AJK5" s="0"/>
+      <c r="AJL5" s="0"/>
+      <c r="AJM5" s="0"/>
+      <c r="AJN5" s="0"/>
+      <c r="AJO5" s="0"/>
+      <c r="AJP5" s="0"/>
+      <c r="AJQ5" s="0"/>
+      <c r="AJR5" s="0"/>
+      <c r="AJS5" s="0"/>
+      <c r="AJT5" s="0"/>
+      <c r="AJU5" s="0"/>
+      <c r="AJV5" s="0"/>
+      <c r="AJW5" s="0"/>
+      <c r="AJX5" s="0"/>
+      <c r="AJY5" s="0"/>
+      <c r="AJZ5" s="0"/>
+      <c r="AKA5" s="0"/>
+      <c r="AKB5" s="0"/>
+      <c r="AKC5" s="0"/>
+      <c r="AKD5" s="0"/>
+      <c r="AKE5" s="0"/>
+      <c r="AKF5" s="0"/>
+      <c r="AKG5" s="0"/>
+      <c r="AKH5" s="0"/>
+      <c r="AKI5" s="0"/>
+      <c r="AKJ5" s="0"/>
+      <c r="AKK5" s="0"/>
+      <c r="AKL5" s="0"/>
+      <c r="AKM5" s="0"/>
+      <c r="AKN5" s="0"/>
+      <c r="AKO5" s="0"/>
+      <c r="AKP5" s="0"/>
+      <c r="AKQ5" s="0"/>
+      <c r="AKR5" s="0"/>
+      <c r="AKS5" s="0"/>
+      <c r="AKT5" s="0"/>
+      <c r="AKU5" s="0"/>
+      <c r="AKV5" s="0"/>
+      <c r="AKW5" s="0"/>
+      <c r="AKX5" s="0"/>
+      <c r="AKY5" s="0"/>
+      <c r="AKZ5" s="0"/>
+      <c r="ALA5" s="0"/>
+      <c r="ALB5" s="0"/>
+      <c r="ALC5" s="0"/>
+      <c r="ALD5" s="0"/>
+      <c r="ALE5" s="0"/>
+      <c r="ALF5" s="0"/>
+      <c r="ALG5" s="0"/>
+      <c r="ALH5" s="0"/>
+      <c r="ALI5" s="0"/>
+      <c r="ALJ5" s="0"/>
+      <c r="ALK5" s="0"/>
+      <c r="ALL5" s="0"/>
+      <c r="ALM5" s="0"/>
+      <c r="ALN5" s="0"/>
+      <c r="ALO5" s="0"/>
+      <c r="ALP5" s="0"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
+      <c r="AMA5" s="0"/>
+      <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
@@ -4869,64 +5929,1076 @@
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="P6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
+      <c r="IU6" s="0"/>
+      <c r="IV6" s="0"/>
+      <c r="IW6" s="0"/>
+      <c r="IX6" s="0"/>
+      <c r="IY6" s="0"/>
+      <c r="IZ6" s="0"/>
+      <c r="JA6" s="0"/>
+      <c r="JB6" s="0"/>
+      <c r="JC6" s="0"/>
+      <c r="JD6" s="0"/>
+      <c r="JE6" s="0"/>
+      <c r="JF6" s="0"/>
+      <c r="JG6" s="0"/>
+      <c r="JH6" s="0"/>
+      <c r="JI6" s="0"/>
+      <c r="JJ6" s="0"/>
+      <c r="JK6" s="0"/>
+      <c r="JL6" s="0"/>
+      <c r="JM6" s="0"/>
+      <c r="JN6" s="0"/>
+      <c r="JO6" s="0"/>
+      <c r="JP6" s="0"/>
+      <c r="JQ6" s="0"/>
+      <c r="JR6" s="0"/>
+      <c r="JS6" s="0"/>
+      <c r="JT6" s="0"/>
+      <c r="JU6" s="0"/>
+      <c r="JV6" s="0"/>
+      <c r="JW6" s="0"/>
+      <c r="JX6" s="0"/>
+      <c r="JY6" s="0"/>
+      <c r="JZ6" s="0"/>
+      <c r="KA6" s="0"/>
+      <c r="KB6" s="0"/>
+      <c r="KC6" s="0"/>
+      <c r="KD6" s="0"/>
+      <c r="KE6" s="0"/>
+      <c r="KF6" s="0"/>
+      <c r="KG6" s="0"/>
+      <c r="KH6" s="0"/>
+      <c r="KI6" s="0"/>
+      <c r="KJ6" s="0"/>
+      <c r="KK6" s="0"/>
+      <c r="KL6" s="0"/>
+      <c r="KM6" s="0"/>
+      <c r="KN6" s="0"/>
+      <c r="KO6" s="0"/>
+      <c r="KP6" s="0"/>
+      <c r="KQ6" s="0"/>
+      <c r="KR6" s="0"/>
+      <c r="KS6" s="0"/>
+      <c r="KT6" s="0"/>
+      <c r="KU6" s="0"/>
+      <c r="KV6" s="0"/>
+      <c r="KW6" s="0"/>
+      <c r="KX6" s="0"/>
+      <c r="KY6" s="0"/>
+      <c r="KZ6" s="0"/>
+      <c r="LA6" s="0"/>
+      <c r="LB6" s="0"/>
+      <c r="LC6" s="0"/>
+      <c r="LD6" s="0"/>
+      <c r="LE6" s="0"/>
+      <c r="LF6" s="0"/>
+      <c r="LG6" s="0"/>
+      <c r="LH6" s="0"/>
+      <c r="LI6" s="0"/>
+      <c r="LJ6" s="0"/>
+      <c r="LK6" s="0"/>
+      <c r="LL6" s="0"/>
+      <c r="LM6" s="0"/>
+      <c r="LN6" s="0"/>
+      <c r="LO6" s="0"/>
+      <c r="LP6" s="0"/>
+      <c r="LQ6" s="0"/>
+      <c r="LR6" s="0"/>
+      <c r="LS6" s="0"/>
+      <c r="LT6" s="0"/>
+      <c r="LU6" s="0"/>
+      <c r="LV6" s="0"/>
+      <c r="LW6" s="0"/>
+      <c r="LX6" s="0"/>
+      <c r="LY6" s="0"/>
+      <c r="LZ6" s="0"/>
+      <c r="MA6" s="0"/>
+      <c r="MB6" s="0"/>
+      <c r="MC6" s="0"/>
+      <c r="MD6" s="0"/>
+      <c r="ME6" s="0"/>
+      <c r="MF6" s="0"/>
+      <c r="MG6" s="0"/>
+      <c r="MH6" s="0"/>
+      <c r="MI6" s="0"/>
+      <c r="MJ6" s="0"/>
+      <c r="MK6" s="0"/>
+      <c r="ML6" s="0"/>
+      <c r="MM6" s="0"/>
+      <c r="MN6" s="0"/>
+      <c r="MO6" s="0"/>
+      <c r="MP6" s="0"/>
+      <c r="MQ6" s="0"/>
+      <c r="MR6" s="0"/>
+      <c r="MS6" s="0"/>
+      <c r="MT6" s="0"/>
+      <c r="MU6" s="0"/>
+      <c r="MV6" s="0"/>
+      <c r="MW6" s="0"/>
+      <c r="MX6" s="0"/>
+      <c r="MY6" s="0"/>
+      <c r="MZ6" s="0"/>
+      <c r="NA6" s="0"/>
+      <c r="NB6" s="0"/>
+      <c r="NC6" s="0"/>
+      <c r="ND6" s="0"/>
+      <c r="NE6" s="0"/>
+      <c r="NF6" s="0"/>
+      <c r="NG6" s="0"/>
+      <c r="NH6" s="0"/>
+      <c r="NI6" s="0"/>
+      <c r="NJ6" s="0"/>
+      <c r="NK6" s="0"/>
+      <c r="NL6" s="0"/>
+      <c r="NM6" s="0"/>
+      <c r="NN6" s="0"/>
+      <c r="NO6" s="0"/>
+      <c r="NP6" s="0"/>
+      <c r="NQ6" s="0"/>
+      <c r="NR6" s="0"/>
+      <c r="NS6" s="0"/>
+      <c r="NT6" s="0"/>
+      <c r="NU6" s="0"/>
+      <c r="NV6" s="0"/>
+      <c r="NW6" s="0"/>
+      <c r="NX6" s="0"/>
+      <c r="NY6" s="0"/>
+      <c r="NZ6" s="0"/>
+      <c r="OA6" s="0"/>
+      <c r="OB6" s="0"/>
+      <c r="OC6" s="0"/>
+      <c r="OD6" s="0"/>
+      <c r="OE6" s="0"/>
+      <c r="OF6" s="0"/>
+      <c r="OG6" s="0"/>
+      <c r="OH6" s="0"/>
+      <c r="OI6" s="0"/>
+      <c r="OJ6" s="0"/>
+      <c r="OK6" s="0"/>
+      <c r="OL6" s="0"/>
+      <c r="OM6" s="0"/>
+      <c r="ON6" s="0"/>
+      <c r="OO6" s="0"/>
+      <c r="OP6" s="0"/>
+      <c r="OQ6" s="0"/>
+      <c r="OR6" s="0"/>
+      <c r="OS6" s="0"/>
+      <c r="OT6" s="0"/>
+      <c r="OU6" s="0"/>
+      <c r="OV6" s="0"/>
+      <c r="OW6" s="0"/>
+      <c r="OX6" s="0"/>
+      <c r="OY6" s="0"/>
+      <c r="OZ6" s="0"/>
+      <c r="PA6" s="0"/>
+      <c r="PB6" s="0"/>
+      <c r="PC6" s="0"/>
+      <c r="PD6" s="0"/>
+      <c r="PE6" s="0"/>
+      <c r="PF6" s="0"/>
+      <c r="PG6" s="0"/>
+      <c r="PH6" s="0"/>
+      <c r="PI6" s="0"/>
+      <c r="PJ6" s="0"/>
+      <c r="PK6" s="0"/>
+      <c r="PL6" s="0"/>
+      <c r="PM6" s="0"/>
+      <c r="PN6" s="0"/>
+      <c r="PO6" s="0"/>
+      <c r="PP6" s="0"/>
+      <c r="PQ6" s="0"/>
+      <c r="PR6" s="0"/>
+      <c r="PS6" s="0"/>
+      <c r="PT6" s="0"/>
+      <c r="PU6" s="0"/>
+      <c r="PV6" s="0"/>
+      <c r="PW6" s="0"/>
+      <c r="PX6" s="0"/>
+      <c r="PY6" s="0"/>
+      <c r="PZ6" s="0"/>
+      <c r="QA6" s="0"/>
+      <c r="QB6" s="0"/>
+      <c r="QC6" s="0"/>
+      <c r="QD6" s="0"/>
+      <c r="QE6" s="0"/>
+      <c r="QF6" s="0"/>
+      <c r="QG6" s="0"/>
+      <c r="QH6" s="0"/>
+      <c r="QI6" s="0"/>
+      <c r="QJ6" s="0"/>
+      <c r="QK6" s="0"/>
+      <c r="QL6" s="0"/>
+      <c r="QM6" s="0"/>
+      <c r="QN6" s="0"/>
+      <c r="QO6" s="0"/>
+      <c r="QP6" s="0"/>
+      <c r="QQ6" s="0"/>
+      <c r="QR6" s="0"/>
+      <c r="QS6" s="0"/>
+      <c r="QT6" s="0"/>
+      <c r="QU6" s="0"/>
+      <c r="QV6" s="0"/>
+      <c r="QW6" s="0"/>
+      <c r="QX6" s="0"/>
+      <c r="QY6" s="0"/>
+      <c r="QZ6" s="0"/>
+      <c r="RA6" s="0"/>
+      <c r="RB6" s="0"/>
+      <c r="RC6" s="0"/>
+      <c r="RD6" s="0"/>
+      <c r="RE6" s="0"/>
+      <c r="RF6" s="0"/>
+      <c r="RG6" s="0"/>
+      <c r="RH6" s="0"/>
+      <c r="RI6" s="0"/>
+      <c r="RJ6" s="0"/>
+      <c r="RK6" s="0"/>
+      <c r="RL6" s="0"/>
+      <c r="RM6" s="0"/>
+      <c r="RN6" s="0"/>
+      <c r="RO6" s="0"/>
+      <c r="RP6" s="0"/>
+      <c r="RQ6" s="0"/>
+      <c r="RR6" s="0"/>
+      <c r="RS6" s="0"/>
+      <c r="RT6" s="0"/>
+      <c r="RU6" s="0"/>
+      <c r="RV6" s="0"/>
+      <c r="RW6" s="0"/>
+      <c r="RX6" s="0"/>
+      <c r="RY6" s="0"/>
+      <c r="RZ6" s="0"/>
+      <c r="SA6" s="0"/>
+      <c r="SB6" s="0"/>
+      <c r="SC6" s="0"/>
+      <c r="SD6" s="0"/>
+      <c r="SE6" s="0"/>
+      <c r="SF6" s="0"/>
+      <c r="SG6" s="0"/>
+      <c r="SH6" s="0"/>
+      <c r="SI6" s="0"/>
+      <c r="SJ6" s="0"/>
+      <c r="SK6" s="0"/>
+      <c r="SL6" s="0"/>
+      <c r="SM6" s="0"/>
+      <c r="SN6" s="0"/>
+      <c r="SO6" s="0"/>
+      <c r="SP6" s="0"/>
+      <c r="SQ6" s="0"/>
+      <c r="SR6" s="0"/>
+      <c r="SS6" s="0"/>
+      <c r="ST6" s="0"/>
+      <c r="SU6" s="0"/>
+      <c r="SV6" s="0"/>
+      <c r="SW6" s="0"/>
+      <c r="SX6" s="0"/>
+      <c r="SY6" s="0"/>
+      <c r="SZ6" s="0"/>
+      <c r="TA6" s="0"/>
+      <c r="TB6" s="0"/>
+      <c r="TC6" s="0"/>
+      <c r="TD6" s="0"/>
+      <c r="TE6" s="0"/>
+      <c r="TF6" s="0"/>
+      <c r="TG6" s="0"/>
+      <c r="TH6" s="0"/>
+      <c r="TI6" s="0"/>
+      <c r="TJ6" s="0"/>
+      <c r="TK6" s="0"/>
+      <c r="TL6" s="0"/>
+      <c r="TM6" s="0"/>
+      <c r="TN6" s="0"/>
+      <c r="TO6" s="0"/>
+      <c r="TP6" s="0"/>
+      <c r="TQ6" s="0"/>
+      <c r="TR6" s="0"/>
+      <c r="TS6" s="0"/>
+      <c r="TT6" s="0"/>
+      <c r="TU6" s="0"/>
+      <c r="TV6" s="0"/>
+      <c r="TW6" s="0"/>
+      <c r="TX6" s="0"/>
+      <c r="TY6" s="0"/>
+      <c r="TZ6" s="0"/>
+      <c r="UA6" s="0"/>
+      <c r="UB6" s="0"/>
+      <c r="UC6" s="0"/>
+      <c r="UD6" s="0"/>
+      <c r="UE6" s="0"/>
+      <c r="UF6" s="0"/>
+      <c r="UG6" s="0"/>
+      <c r="UH6" s="0"/>
+      <c r="UI6" s="0"/>
+      <c r="UJ6" s="0"/>
+      <c r="UK6" s="0"/>
+      <c r="UL6" s="0"/>
+      <c r="UM6" s="0"/>
+      <c r="UN6" s="0"/>
+      <c r="UO6" s="0"/>
+      <c r="UP6" s="0"/>
+      <c r="UQ6" s="0"/>
+      <c r="UR6" s="0"/>
+      <c r="US6" s="0"/>
+      <c r="UT6" s="0"/>
+      <c r="UU6" s="0"/>
+      <c r="UV6" s="0"/>
+      <c r="UW6" s="0"/>
+      <c r="UX6" s="0"/>
+      <c r="UY6" s="0"/>
+      <c r="UZ6" s="0"/>
+      <c r="VA6" s="0"/>
+      <c r="VB6" s="0"/>
+      <c r="VC6" s="0"/>
+      <c r="VD6" s="0"/>
+      <c r="VE6" s="0"/>
+      <c r="VF6" s="0"/>
+      <c r="VG6" s="0"/>
+      <c r="VH6" s="0"/>
+      <c r="VI6" s="0"/>
+      <c r="VJ6" s="0"/>
+      <c r="VK6" s="0"/>
+      <c r="VL6" s="0"/>
+      <c r="VM6" s="0"/>
+      <c r="VN6" s="0"/>
+      <c r="VO6" s="0"/>
+      <c r="VP6" s="0"/>
+      <c r="VQ6" s="0"/>
+      <c r="VR6" s="0"/>
+      <c r="VS6" s="0"/>
+      <c r="VT6" s="0"/>
+      <c r="VU6" s="0"/>
+      <c r="VV6" s="0"/>
+      <c r="VW6" s="0"/>
+      <c r="VX6" s="0"/>
+      <c r="VY6" s="0"/>
+      <c r="VZ6" s="0"/>
+      <c r="WA6" s="0"/>
+      <c r="WB6" s="0"/>
+      <c r="WC6" s="0"/>
+      <c r="WD6" s="0"/>
+      <c r="WE6" s="0"/>
+      <c r="WF6" s="0"/>
+      <c r="WG6" s="0"/>
+      <c r="WH6" s="0"/>
+      <c r="WI6" s="0"/>
+      <c r="WJ6" s="0"/>
+      <c r="WK6" s="0"/>
+      <c r="WL6" s="0"/>
+      <c r="WM6" s="0"/>
+      <c r="WN6" s="0"/>
+      <c r="WO6" s="0"/>
+      <c r="WP6" s="0"/>
+      <c r="WQ6" s="0"/>
+      <c r="WR6" s="0"/>
+      <c r="WS6" s="0"/>
+      <c r="WT6" s="0"/>
+      <c r="WU6" s="0"/>
+      <c r="WV6" s="0"/>
+      <c r="WW6" s="0"/>
+      <c r="WX6" s="0"/>
+      <c r="WY6" s="0"/>
+      <c r="WZ6" s="0"/>
+      <c r="XA6" s="0"/>
+      <c r="XB6" s="0"/>
+      <c r="XC6" s="0"/>
+      <c r="XD6" s="0"/>
+      <c r="XE6" s="0"/>
+      <c r="XF6" s="0"/>
+      <c r="XG6" s="0"/>
+      <c r="XH6" s="0"/>
+      <c r="XI6" s="0"/>
+      <c r="XJ6" s="0"/>
+      <c r="XK6" s="0"/>
+      <c r="XL6" s="0"/>
+      <c r="XM6" s="0"/>
+      <c r="XN6" s="0"/>
+      <c r="XO6" s="0"/>
+      <c r="XP6" s="0"/>
+      <c r="XQ6" s="0"/>
+      <c r="XR6" s="0"/>
+      <c r="XS6" s="0"/>
+      <c r="XT6" s="0"/>
+      <c r="XU6" s="0"/>
+      <c r="XV6" s="0"/>
+      <c r="XW6" s="0"/>
+      <c r="XX6" s="0"/>
+      <c r="XY6" s="0"/>
+      <c r="XZ6" s="0"/>
+      <c r="YA6" s="0"/>
+      <c r="YB6" s="0"/>
+      <c r="YC6" s="0"/>
+      <c r="YD6" s="0"/>
+      <c r="YE6" s="0"/>
+      <c r="YF6" s="0"/>
+      <c r="YG6" s="0"/>
+      <c r="YH6" s="0"/>
+      <c r="YI6" s="0"/>
+      <c r="YJ6" s="0"/>
+      <c r="YK6" s="0"/>
+      <c r="YL6" s="0"/>
+      <c r="YM6" s="0"/>
+      <c r="YN6" s="0"/>
+      <c r="YO6" s="0"/>
+      <c r="YP6" s="0"/>
+      <c r="YQ6" s="0"/>
+      <c r="YR6" s="0"/>
+      <c r="YS6" s="0"/>
+      <c r="YT6" s="0"/>
+      <c r="YU6" s="0"/>
+      <c r="YV6" s="0"/>
+      <c r="YW6" s="0"/>
+      <c r="YX6" s="0"/>
+      <c r="YY6" s="0"/>
+      <c r="YZ6" s="0"/>
+      <c r="ZA6" s="0"/>
+      <c r="ZB6" s="0"/>
+      <c r="ZC6" s="0"/>
+      <c r="ZD6" s="0"/>
+      <c r="ZE6" s="0"/>
+      <c r="ZF6" s="0"/>
+      <c r="ZG6" s="0"/>
+      <c r="ZH6" s="0"/>
+      <c r="ZI6" s="0"/>
+      <c r="ZJ6" s="0"/>
+      <c r="ZK6" s="0"/>
+      <c r="ZL6" s="0"/>
+      <c r="ZM6" s="0"/>
+      <c r="ZN6" s="0"/>
+      <c r="ZO6" s="0"/>
+      <c r="ZP6" s="0"/>
+      <c r="ZQ6" s="0"/>
+      <c r="ZR6" s="0"/>
+      <c r="ZS6" s="0"/>
+      <c r="ZT6" s="0"/>
+      <c r="ZU6" s="0"/>
+      <c r="ZV6" s="0"/>
+      <c r="ZW6" s="0"/>
+      <c r="ZX6" s="0"/>
+      <c r="ZY6" s="0"/>
+      <c r="ZZ6" s="0"/>
+      <c r="AAA6" s="0"/>
+      <c r="AAB6" s="0"/>
+      <c r="AAC6" s="0"/>
+      <c r="AAD6" s="0"/>
+      <c r="AAE6" s="0"/>
+      <c r="AAF6" s="0"/>
+      <c r="AAG6" s="0"/>
+      <c r="AAH6" s="0"/>
+      <c r="AAI6" s="0"/>
+      <c r="AAJ6" s="0"/>
+      <c r="AAK6" s="0"/>
+      <c r="AAL6" s="0"/>
+      <c r="AAM6" s="0"/>
+      <c r="AAN6" s="0"/>
+      <c r="AAO6" s="0"/>
+      <c r="AAP6" s="0"/>
+      <c r="AAQ6" s="0"/>
+      <c r="AAR6" s="0"/>
+      <c r="AAS6" s="0"/>
+      <c r="AAT6" s="0"/>
+      <c r="AAU6" s="0"/>
+      <c r="AAV6" s="0"/>
+      <c r="AAW6" s="0"/>
+      <c r="AAX6" s="0"/>
+      <c r="AAY6" s="0"/>
+      <c r="AAZ6" s="0"/>
+      <c r="ABA6" s="0"/>
+      <c r="ABB6" s="0"/>
+      <c r="ABC6" s="0"/>
+      <c r="ABD6" s="0"/>
+      <c r="ABE6" s="0"/>
+      <c r="ABF6" s="0"/>
+      <c r="ABG6" s="0"/>
+      <c r="ABH6" s="0"/>
+      <c r="ABI6" s="0"/>
+      <c r="ABJ6" s="0"/>
+      <c r="ABK6" s="0"/>
+      <c r="ABL6" s="0"/>
+      <c r="ABM6" s="0"/>
+      <c r="ABN6" s="0"/>
+      <c r="ABO6" s="0"/>
+      <c r="ABP6" s="0"/>
+      <c r="ABQ6" s="0"/>
+      <c r="ABR6" s="0"/>
+      <c r="ABS6" s="0"/>
+      <c r="ABT6" s="0"/>
+      <c r="ABU6" s="0"/>
+      <c r="ABV6" s="0"/>
+      <c r="ABW6" s="0"/>
+      <c r="ABX6" s="0"/>
+      <c r="ABY6" s="0"/>
+      <c r="ABZ6" s="0"/>
+      <c r="ACA6" s="0"/>
+      <c r="ACB6" s="0"/>
+      <c r="ACC6" s="0"/>
+      <c r="ACD6" s="0"/>
+      <c r="ACE6" s="0"/>
+      <c r="ACF6" s="0"/>
+      <c r="ACG6" s="0"/>
+      <c r="ACH6" s="0"/>
+      <c r="ACI6" s="0"/>
+      <c r="ACJ6" s="0"/>
+      <c r="ACK6" s="0"/>
+      <c r="ACL6" s="0"/>
+      <c r="ACM6" s="0"/>
+      <c r="ACN6" s="0"/>
+      <c r="ACO6" s="0"/>
+      <c r="ACP6" s="0"/>
+      <c r="ACQ6" s="0"/>
+      <c r="ACR6" s="0"/>
+      <c r="ACS6" s="0"/>
+      <c r="ACT6" s="0"/>
+      <c r="ACU6" s="0"/>
+      <c r="ACV6" s="0"/>
+      <c r="ACW6" s="0"/>
+      <c r="ACX6" s="0"/>
+      <c r="ACY6" s="0"/>
+      <c r="ACZ6" s="0"/>
+      <c r="ADA6" s="0"/>
+      <c r="ADB6" s="0"/>
+      <c r="ADC6" s="0"/>
+      <c r="ADD6" s="0"/>
+      <c r="ADE6" s="0"/>
+      <c r="ADF6" s="0"/>
+      <c r="ADG6" s="0"/>
+      <c r="ADH6" s="0"/>
+      <c r="ADI6" s="0"/>
+      <c r="ADJ6" s="0"/>
+      <c r="ADK6" s="0"/>
+      <c r="ADL6" s="0"/>
+      <c r="ADM6" s="0"/>
+      <c r="ADN6" s="0"/>
+      <c r="ADO6" s="0"/>
+      <c r="ADP6" s="0"/>
+      <c r="ADQ6" s="0"/>
+      <c r="ADR6" s="0"/>
+      <c r="ADS6" s="0"/>
+      <c r="ADT6" s="0"/>
+      <c r="ADU6" s="0"/>
+      <c r="ADV6" s="0"/>
+      <c r="ADW6" s="0"/>
+      <c r="ADX6" s="0"/>
+      <c r="ADY6" s="0"/>
+      <c r="ADZ6" s="0"/>
+      <c r="AEA6" s="0"/>
+      <c r="AEB6" s="0"/>
+      <c r="AEC6" s="0"/>
+      <c r="AED6" s="0"/>
+      <c r="AEE6" s="0"/>
+      <c r="AEF6" s="0"/>
+      <c r="AEG6" s="0"/>
+      <c r="AEH6" s="0"/>
+      <c r="AEI6" s="0"/>
+      <c r="AEJ6" s="0"/>
+      <c r="AEK6" s="0"/>
+      <c r="AEL6" s="0"/>
+      <c r="AEM6" s="0"/>
+      <c r="AEN6" s="0"/>
+      <c r="AEO6" s="0"/>
+      <c r="AEP6" s="0"/>
+      <c r="AEQ6" s="0"/>
+      <c r="AER6" s="0"/>
+      <c r="AES6" s="0"/>
+      <c r="AET6" s="0"/>
+      <c r="AEU6" s="0"/>
+      <c r="AEV6" s="0"/>
+      <c r="AEW6" s="0"/>
+      <c r="AEX6" s="0"/>
+      <c r="AEY6" s="0"/>
+      <c r="AEZ6" s="0"/>
+      <c r="AFA6" s="0"/>
+      <c r="AFB6" s="0"/>
+      <c r="AFC6" s="0"/>
+      <c r="AFD6" s="0"/>
+      <c r="AFE6" s="0"/>
+      <c r="AFF6" s="0"/>
+      <c r="AFG6" s="0"/>
+      <c r="AFH6" s="0"/>
+      <c r="AFI6" s="0"/>
+      <c r="AFJ6" s="0"/>
+      <c r="AFK6" s="0"/>
+      <c r="AFL6" s="0"/>
+      <c r="AFM6" s="0"/>
+      <c r="AFN6" s="0"/>
+      <c r="AFO6" s="0"/>
+      <c r="AFP6" s="0"/>
+      <c r="AFQ6" s="0"/>
+      <c r="AFR6" s="0"/>
+      <c r="AFS6" s="0"/>
+      <c r="AFT6" s="0"/>
+      <c r="AFU6" s="0"/>
+      <c r="AFV6" s="0"/>
+      <c r="AFW6" s="0"/>
+      <c r="AFX6" s="0"/>
+      <c r="AFY6" s="0"/>
+      <c r="AFZ6" s="0"/>
+      <c r="AGA6" s="0"/>
+      <c r="AGB6" s="0"/>
+      <c r="AGC6" s="0"/>
+      <c r="AGD6" s="0"/>
+      <c r="AGE6" s="0"/>
+      <c r="AGF6" s="0"/>
+      <c r="AGG6" s="0"/>
+      <c r="AGH6" s="0"/>
+      <c r="AGI6" s="0"/>
+      <c r="AGJ6" s="0"/>
+      <c r="AGK6" s="0"/>
+      <c r="AGL6" s="0"/>
+      <c r="AGM6" s="0"/>
+      <c r="AGN6" s="0"/>
+      <c r="AGO6" s="0"/>
+      <c r="AGP6" s="0"/>
+      <c r="AGQ6" s="0"/>
+      <c r="AGR6" s="0"/>
+      <c r="AGS6" s="0"/>
+      <c r="AGT6" s="0"/>
+      <c r="AGU6" s="0"/>
+      <c r="AGV6" s="0"/>
+      <c r="AGW6" s="0"/>
+      <c r="AGX6" s="0"/>
+      <c r="AGY6" s="0"/>
+      <c r="AGZ6" s="0"/>
+      <c r="AHA6" s="0"/>
+      <c r="AHB6" s="0"/>
+      <c r="AHC6" s="0"/>
+      <c r="AHD6" s="0"/>
+      <c r="AHE6" s="0"/>
+      <c r="AHF6" s="0"/>
+      <c r="AHG6" s="0"/>
+      <c r="AHH6" s="0"/>
+      <c r="AHI6" s="0"/>
+      <c r="AHJ6" s="0"/>
+      <c r="AHK6" s="0"/>
+      <c r="AHL6" s="0"/>
+      <c r="AHM6" s="0"/>
+      <c r="AHN6" s="0"/>
+      <c r="AHO6" s="0"/>
+      <c r="AHP6" s="0"/>
+      <c r="AHQ6" s="0"/>
+      <c r="AHR6" s="0"/>
+      <c r="AHS6" s="0"/>
+      <c r="AHT6" s="0"/>
+      <c r="AHU6" s="0"/>
+      <c r="AHV6" s="0"/>
+      <c r="AHW6" s="0"/>
+      <c r="AHX6" s="0"/>
+      <c r="AHY6" s="0"/>
+      <c r="AHZ6" s="0"/>
+      <c r="AIA6" s="0"/>
+      <c r="AIB6" s="0"/>
+      <c r="AIC6" s="0"/>
+      <c r="AID6" s="0"/>
+      <c r="AIE6" s="0"/>
+      <c r="AIF6" s="0"/>
+      <c r="AIG6" s="0"/>
+      <c r="AIH6" s="0"/>
+      <c r="AII6" s="0"/>
+      <c r="AIJ6" s="0"/>
+      <c r="AIK6" s="0"/>
+      <c r="AIL6" s="0"/>
+      <c r="AIM6" s="0"/>
+      <c r="AIN6" s="0"/>
+      <c r="AIO6" s="0"/>
+      <c r="AIP6" s="0"/>
+      <c r="AIQ6" s="0"/>
+      <c r="AIR6" s="0"/>
+      <c r="AIS6" s="0"/>
+      <c r="AIT6" s="0"/>
+      <c r="AIU6" s="0"/>
+      <c r="AIV6" s="0"/>
+      <c r="AIW6" s="0"/>
+      <c r="AIX6" s="0"/>
+      <c r="AIY6" s="0"/>
+      <c r="AIZ6" s="0"/>
+      <c r="AJA6" s="0"/>
+      <c r="AJB6" s="0"/>
+      <c r="AJC6" s="0"/>
+      <c r="AJD6" s="0"/>
+      <c r="AJE6" s="0"/>
+      <c r="AJF6" s="0"/>
+      <c r="AJG6" s="0"/>
+      <c r="AJH6" s="0"/>
+      <c r="AJI6" s="0"/>
+      <c r="AJJ6" s="0"/>
+      <c r="AJK6" s="0"/>
+      <c r="AJL6" s="0"/>
+      <c r="AJM6" s="0"/>
+      <c r="AJN6" s="0"/>
+      <c r="AJO6" s="0"/>
+      <c r="AJP6" s="0"/>
+      <c r="AJQ6" s="0"/>
+      <c r="AJR6" s="0"/>
+      <c r="AJS6" s="0"/>
+      <c r="AJT6" s="0"/>
+      <c r="AJU6" s="0"/>
+      <c r="AJV6" s="0"/>
+      <c r="AJW6" s="0"/>
+      <c r="AJX6" s="0"/>
+      <c r="AJY6" s="0"/>
+      <c r="AJZ6" s="0"/>
+      <c r="AKA6" s="0"/>
+      <c r="AKB6" s="0"/>
+      <c r="AKC6" s="0"/>
+      <c r="AKD6" s="0"/>
+      <c r="AKE6" s="0"/>
+      <c r="AKF6" s="0"/>
+      <c r="AKG6" s="0"/>
+      <c r="AKH6" s="0"/>
+      <c r="AKI6" s="0"/>
+      <c r="AKJ6" s="0"/>
+      <c r="AKK6" s="0"/>
+      <c r="AKL6" s="0"/>
+      <c r="AKM6" s="0"/>
+      <c r="AKN6" s="0"/>
+      <c r="AKO6" s="0"/>
+      <c r="AKP6" s="0"/>
+      <c r="AKQ6" s="0"/>
+      <c r="AKR6" s="0"/>
+      <c r="AKS6" s="0"/>
+      <c r="AKT6" s="0"/>
+      <c r="AKU6" s="0"/>
+      <c r="AKV6" s="0"/>
+      <c r="AKW6" s="0"/>
+      <c r="AKX6" s="0"/>
+      <c r="AKY6" s="0"/>
+      <c r="AKZ6" s="0"/>
+      <c r="ALA6" s="0"/>
+      <c r="ALB6" s="0"/>
+      <c r="ALC6" s="0"/>
+      <c r="ALD6" s="0"/>
+      <c r="ALE6" s="0"/>
+      <c r="ALF6" s="0"/>
+      <c r="ALG6" s="0"/>
+      <c r="ALH6" s="0"/>
+      <c r="ALI6" s="0"/>
+      <c r="ALJ6" s="0"/>
+      <c r="ALK6" s="0"/>
+      <c r="ALL6" s="0"/>
+      <c r="ALM6" s="0"/>
+      <c r="ALN6" s="0"/>
+      <c r="ALO6" s="0"/>
+      <c r="ALP6" s="0"/>
+      <c r="ALQ6" s="0"/>
+      <c r="ALR6" s="0"/>
+      <c r="ALS6" s="0"/>
+      <c r="ALT6" s="0"/>
+      <c r="ALU6" s="0"/>
+      <c r="ALV6" s="0"/>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="0"/>
+      <c r="AMA6" s="0"/>
+      <c r="AMB6" s="0"/>
+      <c r="AMC6" s="0"/>
+      <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
+    <row r="7" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15"/>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,29 +7009,1043 @@
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
+      <c r="IU8" s="0"/>
+      <c r="IV8" s="0"/>
+      <c r="IW8" s="0"/>
+      <c r="IX8" s="0"/>
+      <c r="IY8" s="0"/>
+      <c r="IZ8" s="0"/>
+      <c r="JA8" s="0"/>
+      <c r="JB8" s="0"/>
+      <c r="JC8" s="0"/>
+      <c r="JD8" s="0"/>
+      <c r="JE8" s="0"/>
+      <c r="JF8" s="0"/>
+      <c r="JG8" s="0"/>
+      <c r="JH8" s="0"/>
+      <c r="JI8" s="0"/>
+      <c r="JJ8" s="0"/>
+      <c r="JK8" s="0"/>
+      <c r="JL8" s="0"/>
+      <c r="JM8" s="0"/>
+      <c r="JN8" s="0"/>
+      <c r="JO8" s="0"/>
+      <c r="JP8" s="0"/>
+      <c r="JQ8" s="0"/>
+      <c r="JR8" s="0"/>
+      <c r="JS8" s="0"/>
+      <c r="JT8" s="0"/>
+      <c r="JU8" s="0"/>
+      <c r="JV8" s="0"/>
+      <c r="JW8" s="0"/>
+      <c r="JX8" s="0"/>
+      <c r="JY8" s="0"/>
+      <c r="JZ8" s="0"/>
+      <c r="KA8" s="0"/>
+      <c r="KB8" s="0"/>
+      <c r="KC8" s="0"/>
+      <c r="KD8" s="0"/>
+      <c r="KE8" s="0"/>
+      <c r="KF8" s="0"/>
+      <c r="KG8" s="0"/>
+      <c r="KH8" s="0"/>
+      <c r="KI8" s="0"/>
+      <c r="KJ8" s="0"/>
+      <c r="KK8" s="0"/>
+      <c r="KL8" s="0"/>
+      <c r="KM8" s="0"/>
+      <c r="KN8" s="0"/>
+      <c r="KO8" s="0"/>
+      <c r="KP8" s="0"/>
+      <c r="KQ8" s="0"/>
+      <c r="KR8" s="0"/>
+      <c r="KS8" s="0"/>
+      <c r="KT8" s="0"/>
+      <c r="KU8" s="0"/>
+      <c r="KV8" s="0"/>
+      <c r="KW8" s="0"/>
+      <c r="KX8" s="0"/>
+      <c r="KY8" s="0"/>
+      <c r="KZ8" s="0"/>
+      <c r="LA8" s="0"/>
+      <c r="LB8" s="0"/>
+      <c r="LC8" s="0"/>
+      <c r="LD8" s="0"/>
+      <c r="LE8" s="0"/>
+      <c r="LF8" s="0"/>
+      <c r="LG8" s="0"/>
+      <c r="LH8" s="0"/>
+      <c r="LI8" s="0"/>
+      <c r="LJ8" s="0"/>
+      <c r="LK8" s="0"/>
+      <c r="LL8" s="0"/>
+      <c r="LM8" s="0"/>
+      <c r="LN8" s="0"/>
+      <c r="LO8" s="0"/>
+      <c r="LP8" s="0"/>
+      <c r="LQ8" s="0"/>
+      <c r="LR8" s="0"/>
+      <c r="LS8" s="0"/>
+      <c r="LT8" s="0"/>
+      <c r="LU8" s="0"/>
+      <c r="LV8" s="0"/>
+      <c r="LW8" s="0"/>
+      <c r="LX8" s="0"/>
+      <c r="LY8" s="0"/>
+      <c r="LZ8" s="0"/>
+      <c r="MA8" s="0"/>
+      <c r="MB8" s="0"/>
+      <c r="MC8" s="0"/>
+      <c r="MD8" s="0"/>
+      <c r="ME8" s="0"/>
+      <c r="MF8" s="0"/>
+      <c r="MG8" s="0"/>
+      <c r="MH8" s="0"/>
+      <c r="MI8" s="0"/>
+      <c r="MJ8" s="0"/>
+      <c r="MK8" s="0"/>
+      <c r="ML8" s="0"/>
+      <c r="MM8" s="0"/>
+      <c r="MN8" s="0"/>
+      <c r="MO8" s="0"/>
+      <c r="MP8" s="0"/>
+      <c r="MQ8" s="0"/>
+      <c r="MR8" s="0"/>
+      <c r="MS8" s="0"/>
+      <c r="MT8" s="0"/>
+      <c r="MU8" s="0"/>
+      <c r="MV8" s="0"/>
+      <c r="MW8" s="0"/>
+      <c r="MX8" s="0"/>
+      <c r="MY8" s="0"/>
+      <c r="MZ8" s="0"/>
+      <c r="NA8" s="0"/>
+      <c r="NB8" s="0"/>
+      <c r="NC8" s="0"/>
+      <c r="ND8" s="0"/>
+      <c r="NE8" s="0"/>
+      <c r="NF8" s="0"/>
+      <c r="NG8" s="0"/>
+      <c r="NH8" s="0"/>
+      <c r="NI8" s="0"/>
+      <c r="NJ8" s="0"/>
+      <c r="NK8" s="0"/>
+      <c r="NL8" s="0"/>
+      <c r="NM8" s="0"/>
+      <c r="NN8" s="0"/>
+      <c r="NO8" s="0"/>
+      <c r="NP8" s="0"/>
+      <c r="NQ8" s="0"/>
+      <c r="NR8" s="0"/>
+      <c r="NS8" s="0"/>
+      <c r="NT8" s="0"/>
+      <c r="NU8" s="0"/>
+      <c r="NV8" s="0"/>
+      <c r="NW8" s="0"/>
+      <c r="NX8" s="0"/>
+      <c r="NY8" s="0"/>
+      <c r="NZ8" s="0"/>
+      <c r="OA8" s="0"/>
+      <c r="OB8" s="0"/>
+      <c r="OC8" s="0"/>
+      <c r="OD8" s="0"/>
+      <c r="OE8" s="0"/>
+      <c r="OF8" s="0"/>
+      <c r="OG8" s="0"/>
+      <c r="OH8" s="0"/>
+      <c r="OI8" s="0"/>
+      <c r="OJ8" s="0"/>
+      <c r="OK8" s="0"/>
+      <c r="OL8" s="0"/>
+      <c r="OM8" s="0"/>
+      <c r="ON8" s="0"/>
+      <c r="OO8" s="0"/>
+      <c r="OP8" s="0"/>
+      <c r="OQ8" s="0"/>
+      <c r="OR8" s="0"/>
+      <c r="OS8" s="0"/>
+      <c r="OT8" s="0"/>
+      <c r="OU8" s="0"/>
+      <c r="OV8" s="0"/>
+      <c r="OW8" s="0"/>
+      <c r="OX8" s="0"/>
+      <c r="OY8" s="0"/>
+      <c r="OZ8" s="0"/>
+      <c r="PA8" s="0"/>
+      <c r="PB8" s="0"/>
+      <c r="PC8" s="0"/>
+      <c r="PD8" s="0"/>
+      <c r="PE8" s="0"/>
+      <c r="PF8" s="0"/>
+      <c r="PG8" s="0"/>
+      <c r="PH8" s="0"/>
+      <c r="PI8" s="0"/>
+      <c r="PJ8" s="0"/>
+      <c r="PK8" s="0"/>
+      <c r="PL8" s="0"/>
+      <c r="PM8" s="0"/>
+      <c r="PN8" s="0"/>
+      <c r="PO8" s="0"/>
+      <c r="PP8" s="0"/>
+      <c r="PQ8" s="0"/>
+      <c r="PR8" s="0"/>
+      <c r="PS8" s="0"/>
+      <c r="PT8" s="0"/>
+      <c r="PU8" s="0"/>
+      <c r="PV8" s="0"/>
+      <c r="PW8" s="0"/>
+      <c r="PX8" s="0"/>
+      <c r="PY8" s="0"/>
+      <c r="PZ8" s="0"/>
+      <c r="QA8" s="0"/>
+      <c r="QB8" s="0"/>
+      <c r="QC8" s="0"/>
+      <c r="QD8" s="0"/>
+      <c r="QE8" s="0"/>
+      <c r="QF8" s="0"/>
+      <c r="QG8" s="0"/>
+      <c r="QH8" s="0"/>
+      <c r="QI8" s="0"/>
+      <c r="QJ8" s="0"/>
+      <c r="QK8" s="0"/>
+      <c r="QL8" s="0"/>
+      <c r="QM8" s="0"/>
+      <c r="QN8" s="0"/>
+      <c r="QO8" s="0"/>
+      <c r="QP8" s="0"/>
+      <c r="QQ8" s="0"/>
+      <c r="QR8" s="0"/>
+      <c r="QS8" s="0"/>
+      <c r="QT8" s="0"/>
+      <c r="QU8" s="0"/>
+      <c r="QV8" s="0"/>
+      <c r="QW8" s="0"/>
+      <c r="QX8" s="0"/>
+      <c r="QY8" s="0"/>
+      <c r="QZ8" s="0"/>
+      <c r="RA8" s="0"/>
+      <c r="RB8" s="0"/>
+      <c r="RC8" s="0"/>
+      <c r="RD8" s="0"/>
+      <c r="RE8" s="0"/>
+      <c r="RF8" s="0"/>
+      <c r="RG8" s="0"/>
+      <c r="RH8" s="0"/>
+      <c r="RI8" s="0"/>
+      <c r="RJ8" s="0"/>
+      <c r="RK8" s="0"/>
+      <c r="RL8" s="0"/>
+      <c r="RM8" s="0"/>
+      <c r="RN8" s="0"/>
+      <c r="RO8" s="0"/>
+      <c r="RP8" s="0"/>
+      <c r="RQ8" s="0"/>
+      <c r="RR8" s="0"/>
+      <c r="RS8" s="0"/>
+      <c r="RT8" s="0"/>
+      <c r="RU8" s="0"/>
+      <c r="RV8" s="0"/>
+      <c r="RW8" s="0"/>
+      <c r="RX8" s="0"/>
+      <c r="RY8" s="0"/>
+      <c r="RZ8" s="0"/>
+      <c r="SA8" s="0"/>
+      <c r="SB8" s="0"/>
+      <c r="SC8" s="0"/>
+      <c r="SD8" s="0"/>
+      <c r="SE8" s="0"/>
+      <c r="SF8" s="0"/>
+      <c r="SG8" s="0"/>
+      <c r="SH8" s="0"/>
+      <c r="SI8" s="0"/>
+      <c r="SJ8" s="0"/>
+      <c r="SK8" s="0"/>
+      <c r="SL8" s="0"/>
+      <c r="SM8" s="0"/>
+      <c r="SN8" s="0"/>
+      <c r="SO8" s="0"/>
+      <c r="SP8" s="0"/>
+      <c r="SQ8" s="0"/>
+      <c r="SR8" s="0"/>
+      <c r="SS8" s="0"/>
+      <c r="ST8" s="0"/>
+      <c r="SU8" s="0"/>
+      <c r="SV8" s="0"/>
+      <c r="SW8" s="0"/>
+      <c r="SX8" s="0"/>
+      <c r="SY8" s="0"/>
+      <c r="SZ8" s="0"/>
+      <c r="TA8" s="0"/>
+      <c r="TB8" s="0"/>
+      <c r="TC8" s="0"/>
+      <c r="TD8" s="0"/>
+      <c r="TE8" s="0"/>
+      <c r="TF8" s="0"/>
+      <c r="TG8" s="0"/>
+      <c r="TH8" s="0"/>
+      <c r="TI8" s="0"/>
+      <c r="TJ8" s="0"/>
+      <c r="TK8" s="0"/>
+      <c r="TL8" s="0"/>
+      <c r="TM8" s="0"/>
+      <c r="TN8" s="0"/>
+      <c r="TO8" s="0"/>
+      <c r="TP8" s="0"/>
+      <c r="TQ8" s="0"/>
+      <c r="TR8" s="0"/>
+      <c r="TS8" s="0"/>
+      <c r="TT8" s="0"/>
+      <c r="TU8" s="0"/>
+      <c r="TV8" s="0"/>
+      <c r="TW8" s="0"/>
+      <c r="TX8" s="0"/>
+      <c r="TY8" s="0"/>
+      <c r="TZ8" s="0"/>
+      <c r="UA8" s="0"/>
+      <c r="UB8" s="0"/>
+      <c r="UC8" s="0"/>
+      <c r="UD8" s="0"/>
+      <c r="UE8" s="0"/>
+      <c r="UF8" s="0"/>
+      <c r="UG8" s="0"/>
+      <c r="UH8" s="0"/>
+      <c r="UI8" s="0"/>
+      <c r="UJ8" s="0"/>
+      <c r="UK8" s="0"/>
+      <c r="UL8" s="0"/>
+      <c r="UM8" s="0"/>
+      <c r="UN8" s="0"/>
+      <c r="UO8" s="0"/>
+      <c r="UP8" s="0"/>
+      <c r="UQ8" s="0"/>
+      <c r="UR8" s="0"/>
+      <c r="US8" s="0"/>
+      <c r="UT8" s="0"/>
+      <c r="UU8" s="0"/>
+      <c r="UV8" s="0"/>
+      <c r="UW8" s="0"/>
+      <c r="UX8" s="0"/>
+      <c r="UY8" s="0"/>
+      <c r="UZ8" s="0"/>
+      <c r="VA8" s="0"/>
+      <c r="VB8" s="0"/>
+      <c r="VC8" s="0"/>
+      <c r="VD8" s="0"/>
+      <c r="VE8" s="0"/>
+      <c r="VF8" s="0"/>
+      <c r="VG8" s="0"/>
+      <c r="VH8" s="0"/>
+      <c r="VI8" s="0"/>
+      <c r="VJ8" s="0"/>
+      <c r="VK8" s="0"/>
+      <c r="VL8" s="0"/>
+      <c r="VM8" s="0"/>
+      <c r="VN8" s="0"/>
+      <c r="VO8" s="0"/>
+      <c r="VP8" s="0"/>
+      <c r="VQ8" s="0"/>
+      <c r="VR8" s="0"/>
+      <c r="VS8" s="0"/>
+      <c r="VT8" s="0"/>
+      <c r="VU8" s="0"/>
+      <c r="VV8" s="0"/>
+      <c r="VW8" s="0"/>
+      <c r="VX8" s="0"/>
+      <c r="VY8" s="0"/>
+      <c r="VZ8" s="0"/>
+      <c r="WA8" s="0"/>
+      <c r="WB8" s="0"/>
+      <c r="WC8" s="0"/>
+      <c r="WD8" s="0"/>
+      <c r="WE8" s="0"/>
+      <c r="WF8" s="0"/>
+      <c r="WG8" s="0"/>
+      <c r="WH8" s="0"/>
+      <c r="WI8" s="0"/>
+      <c r="WJ8" s="0"/>
+      <c r="WK8" s="0"/>
+      <c r="WL8" s="0"/>
+      <c r="WM8" s="0"/>
+      <c r="WN8" s="0"/>
+      <c r="WO8" s="0"/>
+      <c r="WP8" s="0"/>
+      <c r="WQ8" s="0"/>
+      <c r="WR8" s="0"/>
+      <c r="WS8" s="0"/>
+      <c r="WT8" s="0"/>
+      <c r="WU8" s="0"/>
+      <c r="WV8" s="0"/>
+      <c r="WW8" s="0"/>
+      <c r="WX8" s="0"/>
+      <c r="WY8" s="0"/>
+      <c r="WZ8" s="0"/>
+      <c r="XA8" s="0"/>
+      <c r="XB8" s="0"/>
+      <c r="XC8" s="0"/>
+      <c r="XD8" s="0"/>
+      <c r="XE8" s="0"/>
+      <c r="XF8" s="0"/>
+      <c r="XG8" s="0"/>
+      <c r="XH8" s="0"/>
+      <c r="XI8" s="0"/>
+      <c r="XJ8" s="0"/>
+      <c r="XK8" s="0"/>
+      <c r="XL8" s="0"/>
+      <c r="XM8" s="0"/>
+      <c r="XN8" s="0"/>
+      <c r="XO8" s="0"/>
+      <c r="XP8" s="0"/>
+      <c r="XQ8" s="0"/>
+      <c r="XR8" s="0"/>
+      <c r="XS8" s="0"/>
+      <c r="XT8" s="0"/>
+      <c r="XU8" s="0"/>
+      <c r="XV8" s="0"/>
+      <c r="XW8" s="0"/>
+      <c r="XX8" s="0"/>
+      <c r="XY8" s="0"/>
+      <c r="XZ8" s="0"/>
+      <c r="YA8" s="0"/>
+      <c r="YB8" s="0"/>
+      <c r="YC8" s="0"/>
+      <c r="YD8" s="0"/>
+      <c r="YE8" s="0"/>
+      <c r="YF8" s="0"/>
+      <c r="YG8" s="0"/>
+      <c r="YH8" s="0"/>
+      <c r="YI8" s="0"/>
+      <c r="YJ8" s="0"/>
+      <c r="YK8" s="0"/>
+      <c r="YL8" s="0"/>
+      <c r="YM8" s="0"/>
+      <c r="YN8" s="0"/>
+      <c r="YO8" s="0"/>
+      <c r="YP8" s="0"/>
+      <c r="YQ8" s="0"/>
+      <c r="YR8" s="0"/>
+      <c r="YS8" s="0"/>
+      <c r="YT8" s="0"/>
+      <c r="YU8" s="0"/>
+      <c r="YV8" s="0"/>
+      <c r="YW8" s="0"/>
+      <c r="YX8" s="0"/>
+      <c r="YY8" s="0"/>
+      <c r="YZ8" s="0"/>
+      <c r="ZA8" s="0"/>
+      <c r="ZB8" s="0"/>
+      <c r="ZC8" s="0"/>
+      <c r="ZD8" s="0"/>
+      <c r="ZE8" s="0"/>
+      <c r="ZF8" s="0"/>
+      <c r="ZG8" s="0"/>
+      <c r="ZH8" s="0"/>
+      <c r="ZI8" s="0"/>
+      <c r="ZJ8" s="0"/>
+      <c r="ZK8" s="0"/>
+      <c r="ZL8" s="0"/>
+      <c r="ZM8" s="0"/>
+      <c r="ZN8" s="0"/>
+      <c r="ZO8" s="0"/>
+      <c r="ZP8" s="0"/>
+      <c r="ZQ8" s="0"/>
+      <c r="ZR8" s="0"/>
+      <c r="ZS8" s="0"/>
+      <c r="ZT8" s="0"/>
+      <c r="ZU8" s="0"/>
+      <c r="ZV8" s="0"/>
+      <c r="ZW8" s="0"/>
+      <c r="ZX8" s="0"/>
+      <c r="ZY8" s="0"/>
+      <c r="ZZ8" s="0"/>
+      <c r="AAA8" s="0"/>
+      <c r="AAB8" s="0"/>
+      <c r="AAC8" s="0"/>
+      <c r="AAD8" s="0"/>
+      <c r="AAE8" s="0"/>
+      <c r="AAF8" s="0"/>
+      <c r="AAG8" s="0"/>
+      <c r="AAH8" s="0"/>
+      <c r="AAI8" s="0"/>
+      <c r="AAJ8" s="0"/>
+      <c r="AAK8" s="0"/>
+      <c r="AAL8" s="0"/>
+      <c r="AAM8" s="0"/>
+      <c r="AAN8" s="0"/>
+      <c r="AAO8" s="0"/>
+      <c r="AAP8" s="0"/>
+      <c r="AAQ8" s="0"/>
+      <c r="AAR8" s="0"/>
+      <c r="AAS8" s="0"/>
+      <c r="AAT8" s="0"/>
+      <c r="AAU8" s="0"/>
+      <c r="AAV8" s="0"/>
+      <c r="AAW8" s="0"/>
+      <c r="AAX8" s="0"/>
+      <c r="AAY8" s="0"/>
+      <c r="AAZ8" s="0"/>
+      <c r="ABA8" s="0"/>
+      <c r="ABB8" s="0"/>
+      <c r="ABC8" s="0"/>
+      <c r="ABD8" s="0"/>
+      <c r="ABE8" s="0"/>
+      <c r="ABF8" s="0"/>
+      <c r="ABG8" s="0"/>
+      <c r="ABH8" s="0"/>
+      <c r="ABI8" s="0"/>
+      <c r="ABJ8" s="0"/>
+      <c r="ABK8" s="0"/>
+      <c r="ABL8" s="0"/>
+      <c r="ABM8" s="0"/>
+      <c r="ABN8" s="0"/>
+      <c r="ABO8" s="0"/>
+      <c r="ABP8" s="0"/>
+      <c r="ABQ8" s="0"/>
+      <c r="ABR8" s="0"/>
+      <c r="ABS8" s="0"/>
+      <c r="ABT8" s="0"/>
+      <c r="ABU8" s="0"/>
+      <c r="ABV8" s="0"/>
+      <c r="ABW8" s="0"/>
+      <c r="ABX8" s="0"/>
+      <c r="ABY8" s="0"/>
+      <c r="ABZ8" s="0"/>
+      <c r="ACA8" s="0"/>
+      <c r="ACB8" s="0"/>
+      <c r="ACC8" s="0"/>
+      <c r="ACD8" s="0"/>
+      <c r="ACE8" s="0"/>
+      <c r="ACF8" s="0"/>
+      <c r="ACG8" s="0"/>
+      <c r="ACH8" s="0"/>
+      <c r="ACI8" s="0"/>
+      <c r="ACJ8" s="0"/>
+      <c r="ACK8" s="0"/>
+      <c r="ACL8" s="0"/>
+      <c r="ACM8" s="0"/>
+      <c r="ACN8" s="0"/>
+      <c r="ACO8" s="0"/>
+      <c r="ACP8" s="0"/>
+      <c r="ACQ8" s="0"/>
+      <c r="ACR8" s="0"/>
+      <c r="ACS8" s="0"/>
+      <c r="ACT8" s="0"/>
+      <c r="ACU8" s="0"/>
+      <c r="ACV8" s="0"/>
+      <c r="ACW8" s="0"/>
+      <c r="ACX8" s="0"/>
+      <c r="ACY8" s="0"/>
+      <c r="ACZ8" s="0"/>
+      <c r="ADA8" s="0"/>
+      <c r="ADB8" s="0"/>
+      <c r="ADC8" s="0"/>
+      <c r="ADD8" s="0"/>
+      <c r="ADE8" s="0"/>
+      <c r="ADF8" s="0"/>
+      <c r="ADG8" s="0"/>
+      <c r="ADH8" s="0"/>
+      <c r="ADI8" s="0"/>
+      <c r="ADJ8" s="0"/>
+      <c r="ADK8" s="0"/>
+      <c r="ADL8" s="0"/>
+      <c r="ADM8" s="0"/>
+      <c r="ADN8" s="0"/>
+      <c r="ADO8" s="0"/>
+      <c r="ADP8" s="0"/>
+      <c r="ADQ8" s="0"/>
+      <c r="ADR8" s="0"/>
+      <c r="ADS8" s="0"/>
+      <c r="ADT8" s="0"/>
+      <c r="ADU8" s="0"/>
+      <c r="ADV8" s="0"/>
+      <c r="ADW8" s="0"/>
+      <c r="ADX8" s="0"/>
+      <c r="ADY8" s="0"/>
+      <c r="ADZ8" s="0"/>
+      <c r="AEA8" s="0"/>
+      <c r="AEB8" s="0"/>
+      <c r="AEC8" s="0"/>
+      <c r="AED8" s="0"/>
+      <c r="AEE8" s="0"/>
+      <c r="AEF8" s="0"/>
+      <c r="AEG8" s="0"/>
+      <c r="AEH8" s="0"/>
+      <c r="AEI8" s="0"/>
+      <c r="AEJ8" s="0"/>
+      <c r="AEK8" s="0"/>
+      <c r="AEL8" s="0"/>
+      <c r="AEM8" s="0"/>
+      <c r="AEN8" s="0"/>
+      <c r="AEO8" s="0"/>
+      <c r="AEP8" s="0"/>
+      <c r="AEQ8" s="0"/>
+      <c r="AER8" s="0"/>
+      <c r="AES8" s="0"/>
+      <c r="AET8" s="0"/>
+      <c r="AEU8" s="0"/>
+      <c r="AEV8" s="0"/>
+      <c r="AEW8" s="0"/>
+      <c r="AEX8" s="0"/>
+      <c r="AEY8" s="0"/>
+      <c r="AEZ8" s="0"/>
+      <c r="AFA8" s="0"/>
+      <c r="AFB8" s="0"/>
+      <c r="AFC8" s="0"/>
+      <c r="AFD8" s="0"/>
+      <c r="AFE8" s="0"/>
+      <c r="AFF8" s="0"/>
+      <c r="AFG8" s="0"/>
+      <c r="AFH8" s="0"/>
+      <c r="AFI8" s="0"/>
+      <c r="AFJ8" s="0"/>
+      <c r="AFK8" s="0"/>
+      <c r="AFL8" s="0"/>
+      <c r="AFM8" s="0"/>
+      <c r="AFN8" s="0"/>
+      <c r="AFO8" s="0"/>
+      <c r="AFP8" s="0"/>
+      <c r="AFQ8" s="0"/>
+      <c r="AFR8" s="0"/>
+      <c r="AFS8" s="0"/>
+      <c r="AFT8" s="0"/>
+      <c r="AFU8" s="0"/>
+      <c r="AFV8" s="0"/>
+      <c r="AFW8" s="0"/>
+      <c r="AFX8" s="0"/>
+      <c r="AFY8" s="0"/>
+      <c r="AFZ8" s="0"/>
+      <c r="AGA8" s="0"/>
+      <c r="AGB8" s="0"/>
+      <c r="AGC8" s="0"/>
+      <c r="AGD8" s="0"/>
+      <c r="AGE8" s="0"/>
+      <c r="AGF8" s="0"/>
+      <c r="AGG8" s="0"/>
+      <c r="AGH8" s="0"/>
+      <c r="AGI8" s="0"/>
+      <c r="AGJ8" s="0"/>
+      <c r="AGK8" s="0"/>
+      <c r="AGL8" s="0"/>
+      <c r="AGM8" s="0"/>
+      <c r="AGN8" s="0"/>
+      <c r="AGO8" s="0"/>
+      <c r="AGP8" s="0"/>
+      <c r="AGQ8" s="0"/>
+      <c r="AGR8" s="0"/>
+      <c r="AGS8" s="0"/>
+      <c r="AGT8" s="0"/>
+      <c r="AGU8" s="0"/>
+      <c r="AGV8" s="0"/>
+      <c r="AGW8" s="0"/>
+      <c r="AGX8" s="0"/>
+      <c r="AGY8" s="0"/>
+      <c r="AGZ8" s="0"/>
+      <c r="AHA8" s="0"/>
+      <c r="AHB8" s="0"/>
+      <c r="AHC8" s="0"/>
+      <c r="AHD8" s="0"/>
+      <c r="AHE8" s="0"/>
+      <c r="AHF8" s="0"/>
+      <c r="AHG8" s="0"/>
+      <c r="AHH8" s="0"/>
+      <c r="AHI8" s="0"/>
+      <c r="AHJ8" s="0"/>
+      <c r="AHK8" s="0"/>
+      <c r="AHL8" s="0"/>
+      <c r="AHM8" s="0"/>
+      <c r="AHN8" s="0"/>
+      <c r="AHO8" s="0"/>
+      <c r="AHP8" s="0"/>
+      <c r="AHQ8" s="0"/>
+      <c r="AHR8" s="0"/>
+      <c r="AHS8" s="0"/>
+      <c r="AHT8" s="0"/>
+      <c r="AHU8" s="0"/>
+      <c r="AHV8" s="0"/>
+      <c r="AHW8" s="0"/>
+      <c r="AHX8" s="0"/>
+      <c r="AHY8" s="0"/>
+      <c r="AHZ8" s="0"/>
+      <c r="AIA8" s="0"/>
+      <c r="AIB8" s="0"/>
+      <c r="AIC8" s="0"/>
+      <c r="AID8" s="0"/>
+      <c r="AIE8" s="0"/>
+      <c r="AIF8" s="0"/>
+      <c r="AIG8" s="0"/>
+      <c r="AIH8" s="0"/>
+      <c r="AII8" s="0"/>
+      <c r="AIJ8" s="0"/>
+      <c r="AIK8" s="0"/>
+      <c r="AIL8" s="0"/>
+      <c r="AIM8" s="0"/>
+      <c r="AIN8" s="0"/>
+      <c r="AIO8" s="0"/>
+      <c r="AIP8" s="0"/>
+      <c r="AIQ8" s="0"/>
+      <c r="AIR8" s="0"/>
+      <c r="AIS8" s="0"/>
+      <c r="AIT8" s="0"/>
+      <c r="AIU8" s="0"/>
+      <c r="AIV8" s="0"/>
+      <c r="AIW8" s="0"/>
+      <c r="AIX8" s="0"/>
+      <c r="AIY8" s="0"/>
+      <c r="AIZ8" s="0"/>
+      <c r="AJA8" s="0"/>
+      <c r="AJB8" s="0"/>
+      <c r="AJC8" s="0"/>
+      <c r="AJD8" s="0"/>
+      <c r="AJE8" s="0"/>
+      <c r="AJF8" s="0"/>
+      <c r="AJG8" s="0"/>
+      <c r="AJH8" s="0"/>
+      <c r="AJI8" s="0"/>
+      <c r="AJJ8" s="0"/>
+      <c r="AJK8" s="0"/>
+      <c r="AJL8" s="0"/>
+      <c r="AJM8" s="0"/>
+      <c r="AJN8" s="0"/>
+      <c r="AJO8" s="0"/>
+      <c r="AJP8" s="0"/>
+      <c r="AJQ8" s="0"/>
+      <c r="AJR8" s="0"/>
+      <c r="AJS8" s="0"/>
+      <c r="AJT8" s="0"/>
+      <c r="AJU8" s="0"/>
+      <c r="AJV8" s="0"/>
+      <c r="AJW8" s="0"/>
+      <c r="AJX8" s="0"/>
+      <c r="AJY8" s="0"/>
+      <c r="AJZ8" s="0"/>
+      <c r="AKA8" s="0"/>
+      <c r="AKB8" s="0"/>
+      <c r="AKC8" s="0"/>
+      <c r="AKD8" s="0"/>
+      <c r="AKE8" s="0"/>
+      <c r="AKF8" s="0"/>
+      <c r="AKG8" s="0"/>
+      <c r="AKH8" s="0"/>
+      <c r="AKI8" s="0"/>
+      <c r="AKJ8" s="0"/>
+      <c r="AKK8" s="0"/>
+      <c r="AKL8" s="0"/>
+      <c r="AKM8" s="0"/>
+      <c r="AKN8" s="0"/>
+      <c r="AKO8" s="0"/>
+      <c r="AKP8" s="0"/>
+      <c r="AKQ8" s="0"/>
+      <c r="AKR8" s="0"/>
+      <c r="AKS8" s="0"/>
+      <c r="AKT8" s="0"/>
+      <c r="AKU8" s="0"/>
+      <c r="AKV8" s="0"/>
+      <c r="AKW8" s="0"/>
+      <c r="AKX8" s="0"/>
+      <c r="AKY8" s="0"/>
+      <c r="AKZ8" s="0"/>
+      <c r="ALA8" s="0"/>
+      <c r="ALB8" s="0"/>
+      <c r="ALC8" s="0"/>
+      <c r="ALD8" s="0"/>
+      <c r="ALE8" s="0"/>
+      <c r="ALF8" s="0"/>
+      <c r="ALG8" s="0"/>
+      <c r="ALH8" s="0"/>
+      <c r="ALI8" s="0"/>
+      <c r="ALJ8" s="0"/>
+      <c r="ALK8" s="0"/>
+      <c r="ALL8" s="0"/>
+      <c r="ALM8" s="0"/>
+      <c r="ALN8" s="0"/>
+      <c r="ALO8" s="0"/>
+      <c r="ALP8" s="0"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -4969,31 +8055,1041 @@
         <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="N9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="0"/>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="AU9" s="0"/>
+      <c r="AV9" s="0"/>
+      <c r="AW9" s="0"/>
+      <c r="AX9" s="0"/>
+      <c r="AY9" s="0"/>
+      <c r="AZ9" s="0"/>
+      <c r="BA9" s="0"/>
+      <c r="BB9" s="0"/>
+      <c r="BC9" s="0"/>
+      <c r="BD9" s="0"/>
+      <c r="BE9" s="0"/>
+      <c r="BF9" s="0"/>
+      <c r="BG9" s="0"/>
+      <c r="BH9" s="0"/>
+      <c r="BI9" s="0"/>
+      <c r="BJ9" s="0"/>
+      <c r="BK9" s="0"/>
+      <c r="BL9" s="0"/>
+      <c r="BM9" s="0"/>
+      <c r="BN9" s="0"/>
+      <c r="BO9" s="0"/>
+      <c r="BP9" s="0"/>
+      <c r="BQ9" s="0"/>
+      <c r="BR9" s="0"/>
+      <c r="BS9" s="0"/>
+      <c r="BT9" s="0"/>
+      <c r="BU9" s="0"/>
+      <c r="BV9" s="0"/>
+      <c r="BW9" s="0"/>
+      <c r="BX9" s="0"/>
+      <c r="BY9" s="0"/>
+      <c r="BZ9" s="0"/>
+      <c r="CA9" s="0"/>
+      <c r="CB9" s="0"/>
+      <c r="CC9" s="0"/>
+      <c r="CD9" s="0"/>
+      <c r="CE9" s="0"/>
+      <c r="CF9" s="0"/>
+      <c r="CG9" s="0"/>
+      <c r="CH9" s="0"/>
+      <c r="CI9" s="0"/>
+      <c r="CJ9" s="0"/>
+      <c r="CK9" s="0"/>
+      <c r="CL9" s="0"/>
+      <c r="CM9" s="0"/>
+      <c r="CN9" s="0"/>
+      <c r="CO9" s="0"/>
+      <c r="CP9" s="0"/>
+      <c r="CQ9" s="0"/>
+      <c r="CR9" s="0"/>
+      <c r="CS9" s="0"/>
+      <c r="CT9" s="0"/>
+      <c r="CU9" s="0"/>
+      <c r="CV9" s="0"/>
+      <c r="CW9" s="0"/>
+      <c r="CX9" s="0"/>
+      <c r="CY9" s="0"/>
+      <c r="CZ9" s="0"/>
+      <c r="DA9" s="0"/>
+      <c r="DB9" s="0"/>
+      <c r="DC9" s="0"/>
+      <c r="DD9" s="0"/>
+      <c r="DE9" s="0"/>
+      <c r="DF9" s="0"/>
+      <c r="DG9" s="0"/>
+      <c r="DH9" s="0"/>
+      <c r="DI9" s="0"/>
+      <c r="DJ9" s="0"/>
+      <c r="DK9" s="0"/>
+      <c r="DL9" s="0"/>
+      <c r="DM9" s="0"/>
+      <c r="DN9" s="0"/>
+      <c r="DO9" s="0"/>
+      <c r="DP9" s="0"/>
+      <c r="DQ9" s="0"/>
+      <c r="DR9" s="0"/>
+      <c r="DS9" s="0"/>
+      <c r="DT9" s="0"/>
+      <c r="DU9" s="0"/>
+      <c r="DV9" s="0"/>
+      <c r="DW9" s="0"/>
+      <c r="DX9" s="0"/>
+      <c r="DY9" s="0"/>
+      <c r="DZ9" s="0"/>
+      <c r="EA9" s="0"/>
+      <c r="EB9" s="0"/>
+      <c r="EC9" s="0"/>
+      <c r="ED9" s="0"/>
+      <c r="EE9" s="0"/>
+      <c r="EF9" s="0"/>
+      <c r="EG9" s="0"/>
+      <c r="EH9" s="0"/>
+      <c r="EI9" s="0"/>
+      <c r="EJ9" s="0"/>
+      <c r="EK9" s="0"/>
+      <c r="EL9" s="0"/>
+      <c r="EM9" s="0"/>
+      <c r="EN9" s="0"/>
+      <c r="EO9" s="0"/>
+      <c r="EP9" s="0"/>
+      <c r="EQ9" s="0"/>
+      <c r="ER9" s="0"/>
+      <c r="ES9" s="0"/>
+      <c r="ET9" s="0"/>
+      <c r="EU9" s="0"/>
+      <c r="EV9" s="0"/>
+      <c r="EW9" s="0"/>
+      <c r="EX9" s="0"/>
+      <c r="EY9" s="0"/>
+      <c r="EZ9" s="0"/>
+      <c r="FA9" s="0"/>
+      <c r="FB9" s="0"/>
+      <c r="FC9" s="0"/>
+      <c r="FD9" s="0"/>
+      <c r="FE9" s="0"/>
+      <c r="FF9" s="0"/>
+      <c r="FG9" s="0"/>
+      <c r="FH9" s="0"/>
+      <c r="FI9" s="0"/>
+      <c r="FJ9" s="0"/>
+      <c r="FK9" s="0"/>
+      <c r="FL9" s="0"/>
+      <c r="FM9" s="0"/>
+      <c r="FN9" s="0"/>
+      <c r="FO9" s="0"/>
+      <c r="FP9" s="0"/>
+      <c r="FQ9" s="0"/>
+      <c r="FR9" s="0"/>
+      <c r="FS9" s="0"/>
+      <c r="FT9" s="0"/>
+      <c r="FU9" s="0"/>
+      <c r="FV9" s="0"/>
+      <c r="FW9" s="0"/>
+      <c r="FX9" s="0"/>
+      <c r="FY9" s="0"/>
+      <c r="FZ9" s="0"/>
+      <c r="GA9" s="0"/>
+      <c r="GB9" s="0"/>
+      <c r="GC9" s="0"/>
+      <c r="GD9" s="0"/>
+      <c r="GE9" s="0"/>
+      <c r="GF9" s="0"/>
+      <c r="GG9" s="0"/>
+      <c r="GH9" s="0"/>
+      <c r="GI9" s="0"/>
+      <c r="GJ9" s="0"/>
+      <c r="GK9" s="0"/>
+      <c r="GL9" s="0"/>
+      <c r="GM9" s="0"/>
+      <c r="GN9" s="0"/>
+      <c r="GO9" s="0"/>
+      <c r="GP9" s="0"/>
+      <c r="GQ9" s="0"/>
+      <c r="GR9" s="0"/>
+      <c r="GS9" s="0"/>
+      <c r="GT9" s="0"/>
+      <c r="GU9" s="0"/>
+      <c r="GV9" s="0"/>
+      <c r="GW9" s="0"/>
+      <c r="GX9" s="0"/>
+      <c r="GY9" s="0"/>
+      <c r="GZ9" s="0"/>
+      <c r="HA9" s="0"/>
+      <c r="HB9" s="0"/>
+      <c r="HC9" s="0"/>
+      <c r="HD9" s="0"/>
+      <c r="HE9" s="0"/>
+      <c r="HF9" s="0"/>
+      <c r="HG9" s="0"/>
+      <c r="HH9" s="0"/>
+      <c r="HI9" s="0"/>
+      <c r="HJ9" s="0"/>
+      <c r="HK9" s="0"/>
+      <c r="HL9" s="0"/>
+      <c r="HM9" s="0"/>
+      <c r="HN9" s="0"/>
+      <c r="HO9" s="0"/>
+      <c r="HP9" s="0"/>
+      <c r="HQ9" s="0"/>
+      <c r="HR9" s="0"/>
+      <c r="HS9" s="0"/>
+      <c r="HT9" s="0"/>
+      <c r="HU9" s="0"/>
+      <c r="HV9" s="0"/>
+      <c r="HW9" s="0"/>
+      <c r="HX9" s="0"/>
+      <c r="HY9" s="0"/>
+      <c r="HZ9" s="0"/>
+      <c r="IA9" s="0"/>
+      <c r="IB9" s="0"/>
+      <c r="IC9" s="0"/>
+      <c r="ID9" s="0"/>
+      <c r="IE9" s="0"/>
+      <c r="IF9" s="0"/>
+      <c r="IG9" s="0"/>
+      <c r="IH9" s="0"/>
+      <c r="II9" s="0"/>
+      <c r="IJ9" s="0"/>
+      <c r="IK9" s="0"/>
+      <c r="IL9" s="0"/>
+      <c r="IM9" s="0"/>
+      <c r="IN9" s="0"/>
+      <c r="IO9" s="0"/>
+      <c r="IP9" s="0"/>
+      <c r="IQ9" s="0"/>
+      <c r="IR9" s="0"/>
+      <c r="IS9" s="0"/>
+      <c r="IT9" s="0"/>
+      <c r="IU9" s="0"/>
+      <c r="IV9" s="0"/>
+      <c r="IW9" s="0"/>
+      <c r="IX9" s="0"/>
+      <c r="IY9" s="0"/>
+      <c r="IZ9" s="0"/>
+      <c r="JA9" s="0"/>
+      <c r="JB9" s="0"/>
+      <c r="JC9" s="0"/>
+      <c r="JD9" s="0"/>
+      <c r="JE9" s="0"/>
+      <c r="JF9" s="0"/>
+      <c r="JG9" s="0"/>
+      <c r="JH9" s="0"/>
+      <c r="JI9" s="0"/>
+      <c r="JJ9" s="0"/>
+      <c r="JK9" s="0"/>
+      <c r="JL9" s="0"/>
+      <c r="JM9" s="0"/>
+      <c r="JN9" s="0"/>
+      <c r="JO9" s="0"/>
+      <c r="JP9" s="0"/>
+      <c r="JQ9" s="0"/>
+      <c r="JR9" s="0"/>
+      <c r="JS9" s="0"/>
+      <c r="JT9" s="0"/>
+      <c r="JU9" s="0"/>
+      <c r="JV9" s="0"/>
+      <c r="JW9" s="0"/>
+      <c r="JX9" s="0"/>
+      <c r="JY9" s="0"/>
+      <c r="JZ9" s="0"/>
+      <c r="KA9" s="0"/>
+      <c r="KB9" s="0"/>
+      <c r="KC9" s="0"/>
+      <c r="KD9" s="0"/>
+      <c r="KE9" s="0"/>
+      <c r="KF9" s="0"/>
+      <c r="KG9" s="0"/>
+      <c r="KH9" s="0"/>
+      <c r="KI9" s="0"/>
+      <c r="KJ9" s="0"/>
+      <c r="KK9" s="0"/>
+      <c r="KL9" s="0"/>
+      <c r="KM9" s="0"/>
+      <c r="KN9" s="0"/>
+      <c r="KO9" s="0"/>
+      <c r="KP9" s="0"/>
+      <c r="KQ9" s="0"/>
+      <c r="KR9" s="0"/>
+      <c r="KS9" s="0"/>
+      <c r="KT9" s="0"/>
+      <c r="KU9" s="0"/>
+      <c r="KV9" s="0"/>
+      <c r="KW9" s="0"/>
+      <c r="KX9" s="0"/>
+      <c r="KY9" s="0"/>
+      <c r="KZ9" s="0"/>
+      <c r="LA9" s="0"/>
+      <c r="LB9" s="0"/>
+      <c r="LC9" s="0"/>
+      <c r="LD9" s="0"/>
+      <c r="LE9" s="0"/>
+      <c r="LF9" s="0"/>
+      <c r="LG9" s="0"/>
+      <c r="LH9" s="0"/>
+      <c r="LI9" s="0"/>
+      <c r="LJ9" s="0"/>
+      <c r="LK9" s="0"/>
+      <c r="LL9" s="0"/>
+      <c r="LM9" s="0"/>
+      <c r="LN9" s="0"/>
+      <c r="LO9" s="0"/>
+      <c r="LP9" s="0"/>
+      <c r="LQ9" s="0"/>
+      <c r="LR9" s="0"/>
+      <c r="LS9" s="0"/>
+      <c r="LT9" s="0"/>
+      <c r="LU9" s="0"/>
+      <c r="LV9" s="0"/>
+      <c r="LW9" s="0"/>
+      <c r="LX9" s="0"/>
+      <c r="LY9" s="0"/>
+      <c r="LZ9" s="0"/>
+      <c r="MA9" s="0"/>
+      <c r="MB9" s="0"/>
+      <c r="MC9" s="0"/>
+      <c r="MD9" s="0"/>
+      <c r="ME9" s="0"/>
+      <c r="MF9" s="0"/>
+      <c r="MG9" s="0"/>
+      <c r="MH9" s="0"/>
+      <c r="MI9" s="0"/>
+      <c r="MJ9" s="0"/>
+      <c r="MK9" s="0"/>
+      <c r="ML9" s="0"/>
+      <c r="MM9" s="0"/>
+      <c r="MN9" s="0"/>
+      <c r="MO9" s="0"/>
+      <c r="MP9" s="0"/>
+      <c r="MQ9" s="0"/>
+      <c r="MR9" s="0"/>
+      <c r="MS9" s="0"/>
+      <c r="MT9" s="0"/>
+      <c r="MU9" s="0"/>
+      <c r="MV9" s="0"/>
+      <c r="MW9" s="0"/>
+      <c r="MX9" s="0"/>
+      <c r="MY9" s="0"/>
+      <c r="MZ9" s="0"/>
+      <c r="NA9" s="0"/>
+      <c r="NB9" s="0"/>
+      <c r="NC9" s="0"/>
+      <c r="ND9" s="0"/>
+      <c r="NE9" s="0"/>
+      <c r="NF9" s="0"/>
+      <c r="NG9" s="0"/>
+      <c r="NH9" s="0"/>
+      <c r="NI9" s="0"/>
+      <c r="NJ9" s="0"/>
+      <c r="NK9" s="0"/>
+      <c r="NL9" s="0"/>
+      <c r="NM9" s="0"/>
+      <c r="NN9" s="0"/>
+      <c r="NO9" s="0"/>
+      <c r="NP9" s="0"/>
+      <c r="NQ9" s="0"/>
+      <c r="NR9" s="0"/>
+      <c r="NS9" s="0"/>
+      <c r="NT9" s="0"/>
+      <c r="NU9" s="0"/>
+      <c r="NV9" s="0"/>
+      <c r="NW9" s="0"/>
+      <c r="NX9" s="0"/>
+      <c r="NY9" s="0"/>
+      <c r="NZ9" s="0"/>
+      <c r="OA9" s="0"/>
+      <c r="OB9" s="0"/>
+      <c r="OC9" s="0"/>
+      <c r="OD9" s="0"/>
+      <c r="OE9" s="0"/>
+      <c r="OF9" s="0"/>
+      <c r="OG9" s="0"/>
+      <c r="OH9" s="0"/>
+      <c r="OI9" s="0"/>
+      <c r="OJ9" s="0"/>
+      <c r="OK9" s="0"/>
+      <c r="OL9" s="0"/>
+      <c r="OM9" s="0"/>
+      <c r="ON9" s="0"/>
+      <c r="OO9" s="0"/>
+      <c r="OP9" s="0"/>
+      <c r="OQ9" s="0"/>
+      <c r="OR9" s="0"/>
+      <c r="OS9" s="0"/>
+      <c r="OT9" s="0"/>
+      <c r="OU9" s="0"/>
+      <c r="OV9" s="0"/>
+      <c r="OW9" s="0"/>
+      <c r="OX9" s="0"/>
+      <c r="OY9" s="0"/>
+      <c r="OZ9" s="0"/>
+      <c r="PA9" s="0"/>
+      <c r="PB9" s="0"/>
+      <c r="PC9" s="0"/>
+      <c r="PD9" s="0"/>
+      <c r="PE9" s="0"/>
+      <c r="PF9" s="0"/>
+      <c r="PG9" s="0"/>
+      <c r="PH9" s="0"/>
+      <c r="PI9" s="0"/>
+      <c r="PJ9" s="0"/>
+      <c r="PK9" s="0"/>
+      <c r="PL9" s="0"/>
+      <c r="PM9" s="0"/>
+      <c r="PN9" s="0"/>
+      <c r="PO9" s="0"/>
+      <c r="PP9" s="0"/>
+      <c r="PQ9" s="0"/>
+      <c r="PR9" s="0"/>
+      <c r="PS9" s="0"/>
+      <c r="PT9" s="0"/>
+      <c r="PU9" s="0"/>
+      <c r="PV9" s="0"/>
+      <c r="PW9" s="0"/>
+      <c r="PX9" s="0"/>
+      <c r="PY9" s="0"/>
+      <c r="PZ9" s="0"/>
+      <c r="QA9" s="0"/>
+      <c r="QB9" s="0"/>
+      <c r="QC9" s="0"/>
+      <c r="QD9" s="0"/>
+      <c r="QE9" s="0"/>
+      <c r="QF9" s="0"/>
+      <c r="QG9" s="0"/>
+      <c r="QH9" s="0"/>
+      <c r="QI9" s="0"/>
+      <c r="QJ9" s="0"/>
+      <c r="QK9" s="0"/>
+      <c r="QL9" s="0"/>
+      <c r="QM9" s="0"/>
+      <c r="QN9" s="0"/>
+      <c r="QO9" s="0"/>
+      <c r="QP9" s="0"/>
+      <c r="QQ9" s="0"/>
+      <c r="QR9" s="0"/>
+      <c r="QS9" s="0"/>
+      <c r="QT9" s="0"/>
+      <c r="QU9" s="0"/>
+      <c r="QV9" s="0"/>
+      <c r="QW9" s="0"/>
+      <c r="QX9" s="0"/>
+      <c r="QY9" s="0"/>
+      <c r="QZ9" s="0"/>
+      <c r="RA9" s="0"/>
+      <c r="RB9" s="0"/>
+      <c r="RC9" s="0"/>
+      <c r="RD9" s="0"/>
+      <c r="RE9" s="0"/>
+      <c r="RF9" s="0"/>
+      <c r="RG9" s="0"/>
+      <c r="RH9" s="0"/>
+      <c r="RI9" s="0"/>
+      <c r="RJ9" s="0"/>
+      <c r="RK9" s="0"/>
+      <c r="RL9" s="0"/>
+      <c r="RM9" s="0"/>
+      <c r="RN9" s="0"/>
+      <c r="RO9" s="0"/>
+      <c r="RP9" s="0"/>
+      <c r="RQ9" s="0"/>
+      <c r="RR9" s="0"/>
+      <c r="RS9" s="0"/>
+      <c r="RT9" s="0"/>
+      <c r="RU9" s="0"/>
+      <c r="RV9" s="0"/>
+      <c r="RW9" s="0"/>
+      <c r="RX9" s="0"/>
+      <c r="RY9" s="0"/>
+      <c r="RZ9" s="0"/>
+      <c r="SA9" s="0"/>
+      <c r="SB9" s="0"/>
+      <c r="SC9" s="0"/>
+      <c r="SD9" s="0"/>
+      <c r="SE9" s="0"/>
+      <c r="SF9" s="0"/>
+      <c r="SG9" s="0"/>
+      <c r="SH9" s="0"/>
+      <c r="SI9" s="0"/>
+      <c r="SJ9" s="0"/>
+      <c r="SK9" s="0"/>
+      <c r="SL9" s="0"/>
+      <c r="SM9" s="0"/>
+      <c r="SN9" s="0"/>
+      <c r="SO9" s="0"/>
+      <c r="SP9" s="0"/>
+      <c r="SQ9" s="0"/>
+      <c r="SR9" s="0"/>
+      <c r="SS9" s="0"/>
+      <c r="ST9" s="0"/>
+      <c r="SU9" s="0"/>
+      <c r="SV9" s="0"/>
+      <c r="SW9" s="0"/>
+      <c r="SX9" s="0"/>
+      <c r="SY9" s="0"/>
+      <c r="SZ9" s="0"/>
+      <c r="TA9" s="0"/>
+      <c r="TB9" s="0"/>
+      <c r="TC9" s="0"/>
+      <c r="TD9" s="0"/>
+      <c r="TE9" s="0"/>
+      <c r="TF9" s="0"/>
+      <c r="TG9" s="0"/>
+      <c r="TH9" s="0"/>
+      <c r="TI9" s="0"/>
+      <c r="TJ9" s="0"/>
+      <c r="TK9" s="0"/>
+      <c r="TL9" s="0"/>
+      <c r="TM9" s="0"/>
+      <c r="TN9" s="0"/>
+      <c r="TO9" s="0"/>
+      <c r="TP9" s="0"/>
+      <c r="TQ9" s="0"/>
+      <c r="TR9" s="0"/>
+      <c r="TS9" s="0"/>
+      <c r="TT9" s="0"/>
+      <c r="TU9" s="0"/>
+      <c r="TV9" s="0"/>
+      <c r="TW9" s="0"/>
+      <c r="TX9" s="0"/>
+      <c r="TY9" s="0"/>
+      <c r="TZ9" s="0"/>
+      <c r="UA9" s="0"/>
+      <c r="UB9" s="0"/>
+      <c r="UC9" s="0"/>
+      <c r="UD9" s="0"/>
+      <c r="UE9" s="0"/>
+      <c r="UF9" s="0"/>
+      <c r="UG9" s="0"/>
+      <c r="UH9" s="0"/>
+      <c r="UI9" s="0"/>
+      <c r="UJ9" s="0"/>
+      <c r="UK9" s="0"/>
+      <c r="UL9" s="0"/>
+      <c r="UM9" s="0"/>
+      <c r="UN9" s="0"/>
+      <c r="UO9" s="0"/>
+      <c r="UP9" s="0"/>
+      <c r="UQ9" s="0"/>
+      <c r="UR9" s="0"/>
+      <c r="US9" s="0"/>
+      <c r="UT9" s="0"/>
+      <c r="UU9" s="0"/>
+      <c r="UV9" s="0"/>
+      <c r="UW9" s="0"/>
+      <c r="UX9" s="0"/>
+      <c r="UY9" s="0"/>
+      <c r="UZ9" s="0"/>
+      <c r="VA9" s="0"/>
+      <c r="VB9" s="0"/>
+      <c r="VC9" s="0"/>
+      <c r="VD9" s="0"/>
+      <c r="VE9" s="0"/>
+      <c r="VF9" s="0"/>
+      <c r="VG9" s="0"/>
+      <c r="VH9" s="0"/>
+      <c r="VI9" s="0"/>
+      <c r="VJ9" s="0"/>
+      <c r="VK9" s="0"/>
+      <c r="VL9" s="0"/>
+      <c r="VM9" s="0"/>
+      <c r="VN9" s="0"/>
+      <c r="VO9" s="0"/>
+      <c r="VP9" s="0"/>
+      <c r="VQ9" s="0"/>
+      <c r="VR9" s="0"/>
+      <c r="VS9" s="0"/>
+      <c r="VT9" s="0"/>
+      <c r="VU9" s="0"/>
+      <c r="VV9" s="0"/>
+      <c r="VW9" s="0"/>
+      <c r="VX9" s="0"/>
+      <c r="VY9" s="0"/>
+      <c r="VZ9" s="0"/>
+      <c r="WA9" s="0"/>
+      <c r="WB9" s="0"/>
+      <c r="WC9" s="0"/>
+      <c r="WD9" s="0"/>
+      <c r="WE9" s="0"/>
+      <c r="WF9" s="0"/>
+      <c r="WG9" s="0"/>
+      <c r="WH9" s="0"/>
+      <c r="WI9" s="0"/>
+      <c r="WJ9" s="0"/>
+      <c r="WK9" s="0"/>
+      <c r="WL9" s="0"/>
+      <c r="WM9" s="0"/>
+      <c r="WN9" s="0"/>
+      <c r="WO9" s="0"/>
+      <c r="WP9" s="0"/>
+      <c r="WQ9" s="0"/>
+      <c r="WR9" s="0"/>
+      <c r="WS9" s="0"/>
+      <c r="WT9" s="0"/>
+      <c r="WU9" s="0"/>
+      <c r="WV9" s="0"/>
+      <c r="WW9" s="0"/>
+      <c r="WX9" s="0"/>
+      <c r="WY9" s="0"/>
+      <c r="WZ9" s="0"/>
+      <c r="XA9" s="0"/>
+      <c r="XB9" s="0"/>
+      <c r="XC9" s="0"/>
+      <c r="XD9" s="0"/>
+      <c r="XE9" s="0"/>
+      <c r="XF9" s="0"/>
+      <c r="XG9" s="0"/>
+      <c r="XH9" s="0"/>
+      <c r="XI9" s="0"/>
+      <c r="XJ9" s="0"/>
+      <c r="XK9" s="0"/>
+      <c r="XL9" s="0"/>
+      <c r="XM9" s="0"/>
+      <c r="XN9" s="0"/>
+      <c r="XO9" s="0"/>
+      <c r="XP9" s="0"/>
+      <c r="XQ9" s="0"/>
+      <c r="XR9" s="0"/>
+      <c r="XS9" s="0"/>
+      <c r="XT9" s="0"/>
+      <c r="XU9" s="0"/>
+      <c r="XV9" s="0"/>
+      <c r="XW9" s="0"/>
+      <c r="XX9" s="0"/>
+      <c r="XY9" s="0"/>
+      <c r="XZ9" s="0"/>
+      <c r="YA9" s="0"/>
+      <c r="YB9" s="0"/>
+      <c r="YC9" s="0"/>
+      <c r="YD9" s="0"/>
+      <c r="YE9" s="0"/>
+      <c r="YF9" s="0"/>
+      <c r="YG9" s="0"/>
+      <c r="YH9" s="0"/>
+      <c r="YI9" s="0"/>
+      <c r="YJ9" s="0"/>
+      <c r="YK9" s="0"/>
+      <c r="YL9" s="0"/>
+      <c r="YM9" s="0"/>
+      <c r="YN9" s="0"/>
+      <c r="YO9" s="0"/>
+      <c r="YP9" s="0"/>
+      <c r="YQ9" s="0"/>
+      <c r="YR9" s="0"/>
+      <c r="YS9" s="0"/>
+      <c r="YT9" s="0"/>
+      <c r="YU9" s="0"/>
+      <c r="YV9" s="0"/>
+      <c r="YW9" s="0"/>
+      <c r="YX9" s="0"/>
+      <c r="YY9" s="0"/>
+      <c r="YZ9" s="0"/>
+      <c r="ZA9" s="0"/>
+      <c r="ZB9" s="0"/>
+      <c r="ZC9" s="0"/>
+      <c r="ZD9" s="0"/>
+      <c r="ZE9" s="0"/>
+      <c r="ZF9" s="0"/>
+      <c r="ZG9" s="0"/>
+      <c r="ZH9" s="0"/>
+      <c r="ZI9" s="0"/>
+      <c r="ZJ9" s="0"/>
+      <c r="ZK9" s="0"/>
+      <c r="ZL9" s="0"/>
+      <c r="ZM9" s="0"/>
+      <c r="ZN9" s="0"/>
+      <c r="ZO9" s="0"/>
+      <c r="ZP9" s="0"/>
+      <c r="ZQ9" s="0"/>
+      <c r="ZR9" s="0"/>
+      <c r="ZS9" s="0"/>
+      <c r="ZT9" s="0"/>
+      <c r="ZU9" s="0"/>
+      <c r="ZV9" s="0"/>
+      <c r="ZW9" s="0"/>
+      <c r="ZX9" s="0"/>
+      <c r="ZY9" s="0"/>
+      <c r="ZZ9" s="0"/>
+      <c r="AAA9" s="0"/>
+      <c r="AAB9" s="0"/>
+      <c r="AAC9" s="0"/>
+      <c r="AAD9" s="0"/>
+      <c r="AAE9" s="0"/>
+      <c r="AAF9" s="0"/>
+      <c r="AAG9" s="0"/>
+      <c r="AAH9" s="0"/>
+      <c r="AAI9" s="0"/>
+      <c r="AAJ9" s="0"/>
+      <c r="AAK9" s="0"/>
+      <c r="AAL9" s="0"/>
+      <c r="AAM9" s="0"/>
+      <c r="AAN9" s="0"/>
+      <c r="AAO9" s="0"/>
+      <c r="AAP9" s="0"/>
+      <c r="AAQ9" s="0"/>
+      <c r="AAR9" s="0"/>
+      <c r="AAS9" s="0"/>
+      <c r="AAT9" s="0"/>
+      <c r="AAU9" s="0"/>
+      <c r="AAV9" s="0"/>
+      <c r="AAW9" s="0"/>
+      <c r="AAX9" s="0"/>
+      <c r="AAY9" s="0"/>
+      <c r="AAZ9" s="0"/>
+      <c r="ABA9" s="0"/>
+      <c r="ABB9" s="0"/>
+      <c r="ABC9" s="0"/>
+      <c r="ABD9" s="0"/>
+      <c r="ABE9" s="0"/>
+      <c r="ABF9" s="0"/>
+      <c r="ABG9" s="0"/>
+      <c r="ABH9" s="0"/>
+      <c r="ABI9" s="0"/>
+      <c r="ABJ9" s="0"/>
+      <c r="ABK9" s="0"/>
+      <c r="ABL9" s="0"/>
+      <c r="ABM9" s="0"/>
+      <c r="ABN9" s="0"/>
+      <c r="ABO9" s="0"/>
+      <c r="ABP9" s="0"/>
+      <c r="ABQ9" s="0"/>
+      <c r="ABR9" s="0"/>
+      <c r="ABS9" s="0"/>
+      <c r="ABT9" s="0"/>
+      <c r="ABU9" s="0"/>
+      <c r="ABV9" s="0"/>
+      <c r="ABW9" s="0"/>
+      <c r="ABX9" s="0"/>
+      <c r="ABY9" s="0"/>
+      <c r="ABZ9" s="0"/>
+      <c r="ACA9" s="0"/>
+      <c r="ACB9" s="0"/>
+      <c r="ACC9" s="0"/>
+      <c r="ACD9" s="0"/>
+      <c r="ACE9" s="0"/>
+      <c r="ACF9" s="0"/>
+      <c r="ACG9" s="0"/>
+      <c r="ACH9" s="0"/>
+      <c r="ACI9" s="0"/>
+      <c r="ACJ9" s="0"/>
+      <c r="ACK9" s="0"/>
+      <c r="ACL9" s="0"/>
+      <c r="ACM9" s="0"/>
+      <c r="ACN9" s="0"/>
+      <c r="ACO9" s="0"/>
+      <c r="ACP9" s="0"/>
+      <c r="ACQ9" s="0"/>
+      <c r="ACR9" s="0"/>
+      <c r="ACS9" s="0"/>
+      <c r="ACT9" s="0"/>
+      <c r="ACU9" s="0"/>
+      <c r="ACV9" s="0"/>
+      <c r="ACW9" s="0"/>
+      <c r="ACX9" s="0"/>
+      <c r="ACY9" s="0"/>
+      <c r="ACZ9" s="0"/>
+      <c r="ADA9" s="0"/>
+      <c r="ADB9" s="0"/>
+      <c r="ADC9" s="0"/>
+      <c r="ADD9" s="0"/>
+      <c r="ADE9" s="0"/>
+      <c r="ADF9" s="0"/>
+      <c r="ADG9" s="0"/>
+      <c r="ADH9" s="0"/>
+      <c r="ADI9" s="0"/>
+      <c r="ADJ9" s="0"/>
+      <c r="ADK9" s="0"/>
+      <c r="ADL9" s="0"/>
+      <c r="ADM9" s="0"/>
+      <c r="ADN9" s="0"/>
+      <c r="ADO9" s="0"/>
+      <c r="ADP9" s="0"/>
+      <c r="ADQ9" s="0"/>
+      <c r="ADR9" s="0"/>
+      <c r="ADS9" s="0"/>
+      <c r="ADT9" s="0"/>
+      <c r="ADU9" s="0"/>
+      <c r="ADV9" s="0"/>
+      <c r="ADW9" s="0"/>
+      <c r="ADX9" s="0"/>
+      <c r="ADY9" s="0"/>
+      <c r="ADZ9" s="0"/>
+      <c r="AEA9" s="0"/>
+      <c r="AEB9" s="0"/>
+      <c r="AEC9" s="0"/>
+      <c r="AED9" s="0"/>
+      <c r="AEE9" s="0"/>
+      <c r="AEF9" s="0"/>
+      <c r="AEG9" s="0"/>
+      <c r="AEH9" s="0"/>
+      <c r="AEI9" s="0"/>
+      <c r="AEJ9" s="0"/>
+      <c r="AEK9" s="0"/>
+      <c r="AEL9" s="0"/>
+      <c r="AEM9" s="0"/>
+      <c r="AEN9" s="0"/>
+      <c r="AEO9" s="0"/>
+      <c r="AEP9" s="0"/>
+      <c r="AEQ9" s="0"/>
+      <c r="AER9" s="0"/>
+      <c r="AES9" s="0"/>
+      <c r="AET9" s="0"/>
+      <c r="AEU9" s="0"/>
+      <c r="AEV9" s="0"/>
+      <c r="AEW9" s="0"/>
+      <c r="AEX9" s="0"/>
+      <c r="AEY9" s="0"/>
+      <c r="AEZ9" s="0"/>
+      <c r="AFA9" s="0"/>
+      <c r="AFB9" s="0"/>
+      <c r="AFC9" s="0"/>
+      <c r="AFD9" s="0"/>
+      <c r="AFE9" s="0"/>
+      <c r="AFF9" s="0"/>
+      <c r="AFG9" s="0"/>
+      <c r="AFH9" s="0"/>
+      <c r="AFI9" s="0"/>
+      <c r="AFJ9" s="0"/>
+      <c r="AFK9" s="0"/>
+      <c r="AFL9" s="0"/>
+      <c r="AFM9" s="0"/>
+      <c r="AFN9" s="0"/>
+      <c r="AFO9" s="0"/>
+      <c r="AFP9" s="0"/>
+      <c r="AFQ9" s="0"/>
+      <c r="AFR9" s="0"/>
+      <c r="AFS9" s="0"/>
+      <c r="AFT9" s="0"/>
+      <c r="AFU9" s="0"/>
+      <c r="AFV9" s="0"/>
+      <c r="AFW9" s="0"/>
+      <c r="AFX9" s="0"/>
+      <c r="AFY9" s="0"/>
+      <c r="AFZ9" s="0"/>
+      <c r="AGA9" s="0"/>
+      <c r="AGB9" s="0"/>
+      <c r="AGC9" s="0"/>
+      <c r="AGD9" s="0"/>
+      <c r="AGE9" s="0"/>
+      <c r="AGF9" s="0"/>
+      <c r="AGG9" s="0"/>
+      <c r="AGH9" s="0"/>
+      <c r="AGI9" s="0"/>
+      <c r="AGJ9" s="0"/>
+      <c r="AGK9" s="0"/>
+      <c r="AGL9" s="0"/>
+      <c r="AGM9" s="0"/>
+      <c r="AGN9" s="0"/>
+      <c r="AGO9" s="0"/>
+      <c r="AGP9" s="0"/>
+      <c r="AGQ9" s="0"/>
+      <c r="AGR9" s="0"/>
+      <c r="AGS9" s="0"/>
+      <c r="AGT9" s="0"/>
+      <c r="AGU9" s="0"/>
+      <c r="AGV9" s="0"/>
+      <c r="AGW9" s="0"/>
+      <c r="AGX9" s="0"/>
+      <c r="AGY9" s="0"/>
+      <c r="AGZ9" s="0"/>
+      <c r="AHA9" s="0"/>
+      <c r="AHB9" s="0"/>
+      <c r="AHC9" s="0"/>
+      <c r="AHD9" s="0"/>
+      <c r="AHE9" s="0"/>
+      <c r="AHF9" s="0"/>
+      <c r="AHG9" s="0"/>
+      <c r="AHH9" s="0"/>
+      <c r="AHI9" s="0"/>
+      <c r="AHJ9" s="0"/>
+      <c r="AHK9" s="0"/>
+      <c r="AHL9" s="0"/>
+      <c r="AHM9" s="0"/>
+      <c r="AHN9" s="0"/>
+      <c r="AHO9" s="0"/>
+      <c r="AHP9" s="0"/>
+      <c r="AHQ9" s="0"/>
+      <c r="AHR9" s="0"/>
+      <c r="AHS9" s="0"/>
+      <c r="AHT9" s="0"/>
+      <c r="AHU9" s="0"/>
+      <c r="AHV9" s="0"/>
+      <c r="AHW9" s="0"/>
+      <c r="AHX9" s="0"/>
+      <c r="AHY9" s="0"/>
+      <c r="AHZ9" s="0"/>
+      <c r="AIA9" s="0"/>
+      <c r="AIB9" s="0"/>
+      <c r="AIC9" s="0"/>
+      <c r="AID9" s="0"/>
+      <c r="AIE9" s="0"/>
+      <c r="AIF9" s="0"/>
+      <c r="AIG9" s="0"/>
+      <c r="AIH9" s="0"/>
+      <c r="AII9" s="0"/>
+      <c r="AIJ9" s="0"/>
+      <c r="AIK9" s="0"/>
+      <c r="AIL9" s="0"/>
+      <c r="AIM9" s="0"/>
+      <c r="AIN9" s="0"/>
+      <c r="AIO9" s="0"/>
+      <c r="AIP9" s="0"/>
+      <c r="AIQ9" s="0"/>
+      <c r="AIR9" s="0"/>
+      <c r="AIS9" s="0"/>
+      <c r="AIT9" s="0"/>
+      <c r="AIU9" s="0"/>
+      <c r="AIV9" s="0"/>
+      <c r="AIW9" s="0"/>
+      <c r="AIX9" s="0"/>
+      <c r="AIY9" s="0"/>
+      <c r="AIZ9" s="0"/>
+      <c r="AJA9" s="0"/>
+      <c r="AJB9" s="0"/>
+      <c r="AJC9" s="0"/>
+      <c r="AJD9" s="0"/>
+      <c r="AJE9" s="0"/>
+      <c r="AJF9" s="0"/>
+      <c r="AJG9" s="0"/>
+      <c r="AJH9" s="0"/>
+      <c r="AJI9" s="0"/>
+      <c r="AJJ9" s="0"/>
+      <c r="AJK9" s="0"/>
+      <c r="AJL9" s="0"/>
+      <c r="AJM9" s="0"/>
+      <c r="AJN9" s="0"/>
+      <c r="AJO9" s="0"/>
+      <c r="AJP9" s="0"/>
+      <c r="AJQ9" s="0"/>
+      <c r="AJR9" s="0"/>
+      <c r="AJS9" s="0"/>
+      <c r="AJT9" s="0"/>
+      <c r="AJU9" s="0"/>
+      <c r="AJV9" s="0"/>
+      <c r="AJW9" s="0"/>
+      <c r="AJX9" s="0"/>
+      <c r="AJY9" s="0"/>
+      <c r="AJZ9" s="0"/>
+      <c r="AKA9" s="0"/>
+      <c r="AKB9" s="0"/>
+      <c r="AKC9" s="0"/>
+      <c r="AKD9" s="0"/>
+      <c r="AKE9" s="0"/>
+      <c r="AKF9" s="0"/>
+      <c r="AKG9" s="0"/>
+      <c r="AKH9" s="0"/>
+      <c r="AKI9" s="0"/>
+      <c r="AKJ9" s="0"/>
+      <c r="AKK9" s="0"/>
+      <c r="AKL9" s="0"/>
+      <c r="AKM9" s="0"/>
+      <c r="AKN9" s="0"/>
+      <c r="AKO9" s="0"/>
+      <c r="AKP9" s="0"/>
+      <c r="AKQ9" s="0"/>
+      <c r="AKR9" s="0"/>
+      <c r="AKS9" s="0"/>
+      <c r="AKT9" s="0"/>
+      <c r="AKU9" s="0"/>
+      <c r="AKV9" s="0"/>
+      <c r="AKW9" s="0"/>
+      <c r="AKX9" s="0"/>
+      <c r="AKY9" s="0"/>
+      <c r="AKZ9" s="0"/>
+      <c r="ALA9" s="0"/>
+      <c r="ALB9" s="0"/>
+      <c r="ALC9" s="0"/>
+      <c r="ALD9" s="0"/>
+      <c r="ALE9" s="0"/>
+      <c r="ALF9" s="0"/>
+      <c r="ALG9" s="0"/>
+      <c r="ALH9" s="0"/>
+      <c r="ALI9" s="0"/>
+      <c r="ALJ9" s="0"/>
+      <c r="ALK9" s="0"/>
+      <c r="ALL9" s="0"/>
+      <c r="ALM9" s="0"/>
+      <c r="ALN9" s="0"/>
+      <c r="ALO9" s="0"/>
+      <c r="ALP9" s="0"/>
+      <c r="ALQ9" s="0"/>
+      <c r="ALR9" s="0"/>
+      <c r="ALS9" s="0"/>
+      <c r="ALT9" s="0"/>
+      <c r="ALU9" s="0"/>
+      <c r="ALV9" s="0"/>
+      <c r="ALW9" s="0"/>
+      <c r="ALX9" s="0"/>
+      <c r="ALY9" s="0"/>
+      <c r="ALZ9" s="0"/>
+      <c r="AMA9" s="0"/>
+      <c r="AMB9" s="0"/>
+      <c r="AMC9" s="0"/>
+      <c r="AMD9" s="0"/>
+      <c r="AME9" s="0"/>
+      <c r="AMF9" s="0"/>
+      <c r="AMG9" s="0"/>
+      <c r="AMH9" s="0"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -5003,98 +9099,144 @@
         <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>30</v>
+      <c r="P10" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>32</v>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5113,75 +9255,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:12"/>
+  <dimension ref="1:13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="N3 D7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="65.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="6.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="18" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="18" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="18" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>47</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -6199,221 +10341,243 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="D11" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="E11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="22" t="n">
+      <c r="A12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/LIONNZ_SAND/Data/Template.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Template.xlsx
@@ -150,7 +150,7 @@
     <t xml:space="preserve">sub_category</t>
   </si>
   <si>
-    <t xml:space="preserve">Beer Tap</t>
+    <t xml:space="preserve">Tap</t>
   </si>
   <si>
     <t xml:space="preserve">on premise</t>
@@ -313,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,14 +371,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,17 +494,16 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="2" sqref="I13 I30 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2397959183674"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,23 +665,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topRight" activeCell="I30" activeCellId="1" sqref="I13 I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="49.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="65.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="8" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="8" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="8" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="64.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="8" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="8" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="8" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,8 +6958,8 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
@@ -7000,6 +6991,1014 @@
       <c r="P7" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
+      <c r="IX7" s="0"/>
+      <c r="IY7" s="0"/>
+      <c r="IZ7" s="0"/>
+      <c r="JA7" s="0"/>
+      <c r="JB7" s="0"/>
+      <c r="JC7" s="0"/>
+      <c r="JD7" s="0"/>
+      <c r="JE7" s="0"/>
+      <c r="JF7" s="0"/>
+      <c r="JG7" s="0"/>
+      <c r="JH7" s="0"/>
+      <c r="JI7" s="0"/>
+      <c r="JJ7" s="0"/>
+      <c r="JK7" s="0"/>
+      <c r="JL7" s="0"/>
+      <c r="JM7" s="0"/>
+      <c r="JN7" s="0"/>
+      <c r="JO7" s="0"/>
+      <c r="JP7" s="0"/>
+      <c r="JQ7" s="0"/>
+      <c r="JR7" s="0"/>
+      <c r="JS7" s="0"/>
+      <c r="JT7" s="0"/>
+      <c r="JU7" s="0"/>
+      <c r="JV7" s="0"/>
+      <c r="JW7" s="0"/>
+      <c r="JX7" s="0"/>
+      <c r="JY7" s="0"/>
+      <c r="JZ7" s="0"/>
+      <c r="KA7" s="0"/>
+      <c r="KB7" s="0"/>
+      <c r="KC7" s="0"/>
+      <c r="KD7" s="0"/>
+      <c r="KE7" s="0"/>
+      <c r="KF7" s="0"/>
+      <c r="KG7" s="0"/>
+      <c r="KH7" s="0"/>
+      <c r="KI7" s="0"/>
+      <c r="KJ7" s="0"/>
+      <c r="KK7" s="0"/>
+      <c r="KL7" s="0"/>
+      <c r="KM7" s="0"/>
+      <c r="KN7" s="0"/>
+      <c r="KO7" s="0"/>
+      <c r="KP7" s="0"/>
+      <c r="KQ7" s="0"/>
+      <c r="KR7" s="0"/>
+      <c r="KS7" s="0"/>
+      <c r="KT7" s="0"/>
+      <c r="KU7" s="0"/>
+      <c r="KV7" s="0"/>
+      <c r="KW7" s="0"/>
+      <c r="KX7" s="0"/>
+      <c r="KY7" s="0"/>
+      <c r="KZ7" s="0"/>
+      <c r="LA7" s="0"/>
+      <c r="LB7" s="0"/>
+      <c r="LC7" s="0"/>
+      <c r="LD7" s="0"/>
+      <c r="LE7" s="0"/>
+      <c r="LF7" s="0"/>
+      <c r="LG7" s="0"/>
+      <c r="LH7" s="0"/>
+      <c r="LI7" s="0"/>
+      <c r="LJ7" s="0"/>
+      <c r="LK7" s="0"/>
+      <c r="LL7" s="0"/>
+      <c r="LM7" s="0"/>
+      <c r="LN7" s="0"/>
+      <c r="LO7" s="0"/>
+      <c r="LP7" s="0"/>
+      <c r="LQ7" s="0"/>
+      <c r="LR7" s="0"/>
+      <c r="LS7" s="0"/>
+      <c r="LT7" s="0"/>
+      <c r="LU7" s="0"/>
+      <c r="LV7" s="0"/>
+      <c r="LW7" s="0"/>
+      <c r="LX7" s="0"/>
+      <c r="LY7" s="0"/>
+      <c r="LZ7" s="0"/>
+      <c r="MA7" s="0"/>
+      <c r="MB7" s="0"/>
+      <c r="MC7" s="0"/>
+      <c r="MD7" s="0"/>
+      <c r="ME7" s="0"/>
+      <c r="MF7" s="0"/>
+      <c r="MG7" s="0"/>
+      <c r="MH7" s="0"/>
+      <c r="MI7" s="0"/>
+      <c r="MJ7" s="0"/>
+      <c r="MK7" s="0"/>
+      <c r="ML7" s="0"/>
+      <c r="MM7" s="0"/>
+      <c r="MN7" s="0"/>
+      <c r="MO7" s="0"/>
+      <c r="MP7" s="0"/>
+      <c r="MQ7" s="0"/>
+      <c r="MR7" s="0"/>
+      <c r="MS7" s="0"/>
+      <c r="MT7" s="0"/>
+      <c r="MU7" s="0"/>
+      <c r="MV7" s="0"/>
+      <c r="MW7" s="0"/>
+      <c r="MX7" s="0"/>
+      <c r="MY7" s="0"/>
+      <c r="MZ7" s="0"/>
+      <c r="NA7" s="0"/>
+      <c r="NB7" s="0"/>
+      <c r="NC7" s="0"/>
+      <c r="ND7" s="0"/>
+      <c r="NE7" s="0"/>
+      <c r="NF7" s="0"/>
+      <c r="NG7" s="0"/>
+      <c r="NH7" s="0"/>
+      <c r="NI7" s="0"/>
+      <c r="NJ7" s="0"/>
+      <c r="NK7" s="0"/>
+      <c r="NL7" s="0"/>
+      <c r="NM7" s="0"/>
+      <c r="NN7" s="0"/>
+      <c r="NO7" s="0"/>
+      <c r="NP7" s="0"/>
+      <c r="NQ7" s="0"/>
+      <c r="NR7" s="0"/>
+      <c r="NS7" s="0"/>
+      <c r="NT7" s="0"/>
+      <c r="NU7" s="0"/>
+      <c r="NV7" s="0"/>
+      <c r="NW7" s="0"/>
+      <c r="NX7" s="0"/>
+      <c r="NY7" s="0"/>
+      <c r="NZ7" s="0"/>
+      <c r="OA7" s="0"/>
+      <c r="OB7" s="0"/>
+      <c r="OC7" s="0"/>
+      <c r="OD7" s="0"/>
+      <c r="OE7" s="0"/>
+      <c r="OF7" s="0"/>
+      <c r="OG7" s="0"/>
+      <c r="OH7" s="0"/>
+      <c r="OI7" s="0"/>
+      <c r="OJ7" s="0"/>
+      <c r="OK7" s="0"/>
+      <c r="OL7" s="0"/>
+      <c r="OM7" s="0"/>
+      <c r="ON7" s="0"/>
+      <c r="OO7" s="0"/>
+      <c r="OP7" s="0"/>
+      <c r="OQ7" s="0"/>
+      <c r="OR7" s="0"/>
+      <c r="OS7" s="0"/>
+      <c r="OT7" s="0"/>
+      <c r="OU7" s="0"/>
+      <c r="OV7" s="0"/>
+      <c r="OW7" s="0"/>
+      <c r="OX7" s="0"/>
+      <c r="OY7" s="0"/>
+      <c r="OZ7" s="0"/>
+      <c r="PA7" s="0"/>
+      <c r="PB7" s="0"/>
+      <c r="PC7" s="0"/>
+      <c r="PD7" s="0"/>
+      <c r="PE7" s="0"/>
+      <c r="PF7" s="0"/>
+      <c r="PG7" s="0"/>
+      <c r="PH7" s="0"/>
+      <c r="PI7" s="0"/>
+      <c r="PJ7" s="0"/>
+      <c r="PK7" s="0"/>
+      <c r="PL7" s="0"/>
+      <c r="PM7" s="0"/>
+      <c r="PN7" s="0"/>
+      <c r="PO7" s="0"/>
+      <c r="PP7" s="0"/>
+      <c r="PQ7" s="0"/>
+      <c r="PR7" s="0"/>
+      <c r="PS7" s="0"/>
+      <c r="PT7" s="0"/>
+      <c r="PU7" s="0"/>
+      <c r="PV7" s="0"/>
+      <c r="PW7" s="0"/>
+      <c r="PX7" s="0"/>
+      <c r="PY7" s="0"/>
+      <c r="PZ7" s="0"/>
+      <c r="QA7" s="0"/>
+      <c r="QB7" s="0"/>
+      <c r="QC7" s="0"/>
+      <c r="QD7" s="0"/>
+      <c r="QE7" s="0"/>
+      <c r="QF7" s="0"/>
+      <c r="QG7" s="0"/>
+      <c r="QH7" s="0"/>
+      <c r="QI7" s="0"/>
+      <c r="QJ7" s="0"/>
+      <c r="QK7" s="0"/>
+      <c r="QL7" s="0"/>
+      <c r="QM7" s="0"/>
+      <c r="QN7" s="0"/>
+      <c r="QO7" s="0"/>
+      <c r="QP7" s="0"/>
+      <c r="QQ7" s="0"/>
+      <c r="QR7" s="0"/>
+      <c r="QS7" s="0"/>
+      <c r="QT7" s="0"/>
+      <c r="QU7" s="0"/>
+      <c r="QV7" s="0"/>
+      <c r="QW7" s="0"/>
+      <c r="QX7" s="0"/>
+      <c r="QY7" s="0"/>
+      <c r="QZ7" s="0"/>
+      <c r="RA7" s="0"/>
+      <c r="RB7" s="0"/>
+      <c r="RC7" s="0"/>
+      <c r="RD7" s="0"/>
+      <c r="RE7" s="0"/>
+      <c r="RF7" s="0"/>
+      <c r="RG7" s="0"/>
+      <c r="RH7" s="0"/>
+      <c r="RI7" s="0"/>
+      <c r="RJ7" s="0"/>
+      <c r="RK7" s="0"/>
+      <c r="RL7" s="0"/>
+      <c r="RM7" s="0"/>
+      <c r="RN7" s="0"/>
+      <c r="RO7" s="0"/>
+      <c r="RP7" s="0"/>
+      <c r="RQ7" s="0"/>
+      <c r="RR7" s="0"/>
+      <c r="RS7" s="0"/>
+      <c r="RT7" s="0"/>
+      <c r="RU7" s="0"/>
+      <c r="RV7" s="0"/>
+      <c r="RW7" s="0"/>
+      <c r="RX7" s="0"/>
+      <c r="RY7" s="0"/>
+      <c r="RZ7" s="0"/>
+      <c r="SA7" s="0"/>
+      <c r="SB7" s="0"/>
+      <c r="SC7" s="0"/>
+      <c r="SD7" s="0"/>
+      <c r="SE7" s="0"/>
+      <c r="SF7" s="0"/>
+      <c r="SG7" s="0"/>
+      <c r="SH7" s="0"/>
+      <c r="SI7" s="0"/>
+      <c r="SJ7" s="0"/>
+      <c r="SK7" s="0"/>
+      <c r="SL7" s="0"/>
+      <c r="SM7" s="0"/>
+      <c r="SN7" s="0"/>
+      <c r="SO7" s="0"/>
+      <c r="SP7" s="0"/>
+      <c r="SQ7" s="0"/>
+      <c r="SR7" s="0"/>
+      <c r="SS7" s="0"/>
+      <c r="ST7" s="0"/>
+      <c r="SU7" s="0"/>
+      <c r="SV7" s="0"/>
+      <c r="SW7" s="0"/>
+      <c r="SX7" s="0"/>
+      <c r="SY7" s="0"/>
+      <c r="SZ7" s="0"/>
+      <c r="TA7" s="0"/>
+      <c r="TB7" s="0"/>
+      <c r="TC7" s="0"/>
+      <c r="TD7" s="0"/>
+      <c r="TE7" s="0"/>
+      <c r="TF7" s="0"/>
+      <c r="TG7" s="0"/>
+      <c r="TH7" s="0"/>
+      <c r="TI7" s="0"/>
+      <c r="TJ7" s="0"/>
+      <c r="TK7" s="0"/>
+      <c r="TL7" s="0"/>
+      <c r="TM7" s="0"/>
+      <c r="TN7" s="0"/>
+      <c r="TO7" s="0"/>
+      <c r="TP7" s="0"/>
+      <c r="TQ7" s="0"/>
+      <c r="TR7" s="0"/>
+      <c r="TS7" s="0"/>
+      <c r="TT7" s="0"/>
+      <c r="TU7" s="0"/>
+      <c r="TV7" s="0"/>
+      <c r="TW7" s="0"/>
+      <c r="TX7" s="0"/>
+      <c r="TY7" s="0"/>
+      <c r="TZ7" s="0"/>
+      <c r="UA7" s="0"/>
+      <c r="UB7" s="0"/>
+      <c r="UC7" s="0"/>
+      <c r="UD7" s="0"/>
+      <c r="UE7" s="0"/>
+      <c r="UF7" s="0"/>
+      <c r="UG7" s="0"/>
+      <c r="UH7" s="0"/>
+      <c r="UI7" s="0"/>
+      <c r="UJ7" s="0"/>
+      <c r="UK7" s="0"/>
+      <c r="UL7" s="0"/>
+      <c r="UM7" s="0"/>
+      <c r="UN7" s="0"/>
+      <c r="UO7" s="0"/>
+      <c r="UP7" s="0"/>
+      <c r="UQ7" s="0"/>
+      <c r="UR7" s="0"/>
+      <c r="US7" s="0"/>
+      <c r="UT7" s="0"/>
+      <c r="UU7" s="0"/>
+      <c r="UV7" s="0"/>
+      <c r="UW7" s="0"/>
+      <c r="UX7" s="0"/>
+      <c r="UY7" s="0"/>
+      <c r="UZ7" s="0"/>
+      <c r="VA7" s="0"/>
+      <c r="VB7" s="0"/>
+      <c r="VC7" s="0"/>
+      <c r="VD7" s="0"/>
+      <c r="VE7" s="0"/>
+      <c r="VF7" s="0"/>
+      <c r="VG7" s="0"/>
+      <c r="VH7" s="0"/>
+      <c r="VI7" s="0"/>
+      <c r="VJ7" s="0"/>
+      <c r="VK7" s="0"/>
+      <c r="VL7" s="0"/>
+      <c r="VM7" s="0"/>
+      <c r="VN7" s="0"/>
+      <c r="VO7" s="0"/>
+      <c r="VP7" s="0"/>
+      <c r="VQ7" s="0"/>
+      <c r="VR7" s="0"/>
+      <c r="VS7" s="0"/>
+      <c r="VT7" s="0"/>
+      <c r="VU7" s="0"/>
+      <c r="VV7" s="0"/>
+      <c r="VW7" s="0"/>
+      <c r="VX7" s="0"/>
+      <c r="VY7" s="0"/>
+      <c r="VZ7" s="0"/>
+      <c r="WA7" s="0"/>
+      <c r="WB7" s="0"/>
+      <c r="WC7" s="0"/>
+      <c r="WD7" s="0"/>
+      <c r="WE7" s="0"/>
+      <c r="WF7" s="0"/>
+      <c r="WG7" s="0"/>
+      <c r="WH7" s="0"/>
+      <c r="WI7" s="0"/>
+      <c r="WJ7" s="0"/>
+      <c r="WK7" s="0"/>
+      <c r="WL7" s="0"/>
+      <c r="WM7" s="0"/>
+      <c r="WN7" s="0"/>
+      <c r="WO7" s="0"/>
+      <c r="WP7" s="0"/>
+      <c r="WQ7" s="0"/>
+      <c r="WR7" s="0"/>
+      <c r="WS7" s="0"/>
+      <c r="WT7" s="0"/>
+      <c r="WU7" s="0"/>
+      <c r="WV7" s="0"/>
+      <c r="WW7" s="0"/>
+      <c r="WX7" s="0"/>
+      <c r="WY7" s="0"/>
+      <c r="WZ7" s="0"/>
+      <c r="XA7" s="0"/>
+      <c r="XB7" s="0"/>
+      <c r="XC7" s="0"/>
+      <c r="XD7" s="0"/>
+      <c r="XE7" s="0"/>
+      <c r="XF7" s="0"/>
+      <c r="XG7" s="0"/>
+      <c r="XH7" s="0"/>
+      <c r="XI7" s="0"/>
+      <c r="XJ7" s="0"/>
+      <c r="XK7" s="0"/>
+      <c r="XL7" s="0"/>
+      <c r="XM7" s="0"/>
+      <c r="XN7" s="0"/>
+      <c r="XO7" s="0"/>
+      <c r="XP7" s="0"/>
+      <c r="XQ7" s="0"/>
+      <c r="XR7" s="0"/>
+      <c r="XS7" s="0"/>
+      <c r="XT7" s="0"/>
+      <c r="XU7" s="0"/>
+      <c r="XV7" s="0"/>
+      <c r="XW7" s="0"/>
+      <c r="XX7" s="0"/>
+      <c r="XY7" s="0"/>
+      <c r="XZ7" s="0"/>
+      <c r="YA7" s="0"/>
+      <c r="YB7" s="0"/>
+      <c r="YC7" s="0"/>
+      <c r="YD7" s="0"/>
+      <c r="YE7" s="0"/>
+      <c r="YF7" s="0"/>
+      <c r="YG7" s="0"/>
+      <c r="YH7" s="0"/>
+      <c r="YI7" s="0"/>
+      <c r="YJ7" s="0"/>
+      <c r="YK7" s="0"/>
+      <c r="YL7" s="0"/>
+      <c r="YM7" s="0"/>
+      <c r="YN7" s="0"/>
+      <c r="YO7" s="0"/>
+      <c r="YP7" s="0"/>
+      <c r="YQ7" s="0"/>
+      <c r="YR7" s="0"/>
+      <c r="YS7" s="0"/>
+      <c r="YT7" s="0"/>
+      <c r="YU7" s="0"/>
+      <c r="YV7" s="0"/>
+      <c r="YW7" s="0"/>
+      <c r="YX7" s="0"/>
+      <c r="YY7" s="0"/>
+      <c r="YZ7" s="0"/>
+      <c r="ZA7" s="0"/>
+      <c r="ZB7" s="0"/>
+      <c r="ZC7" s="0"/>
+      <c r="ZD7" s="0"/>
+      <c r="ZE7" s="0"/>
+      <c r="ZF7" s="0"/>
+      <c r="ZG7" s="0"/>
+      <c r="ZH7" s="0"/>
+      <c r="ZI7" s="0"/>
+      <c r="ZJ7" s="0"/>
+      <c r="ZK7" s="0"/>
+      <c r="ZL7" s="0"/>
+      <c r="ZM7" s="0"/>
+      <c r="ZN7" s="0"/>
+      <c r="ZO7" s="0"/>
+      <c r="ZP7" s="0"/>
+      <c r="ZQ7" s="0"/>
+      <c r="ZR7" s="0"/>
+      <c r="ZS7" s="0"/>
+      <c r="ZT7" s="0"/>
+      <c r="ZU7" s="0"/>
+      <c r="ZV7" s="0"/>
+      <c r="ZW7" s="0"/>
+      <c r="ZX7" s="0"/>
+      <c r="ZY7" s="0"/>
+      <c r="ZZ7" s="0"/>
+      <c r="AAA7" s="0"/>
+      <c r="AAB7" s="0"/>
+      <c r="AAC7" s="0"/>
+      <c r="AAD7" s="0"/>
+      <c r="AAE7" s="0"/>
+      <c r="AAF7" s="0"/>
+      <c r="AAG7" s="0"/>
+      <c r="AAH7" s="0"/>
+      <c r="AAI7" s="0"/>
+      <c r="AAJ7" s="0"/>
+      <c r="AAK7" s="0"/>
+      <c r="AAL7" s="0"/>
+      <c r="AAM7" s="0"/>
+      <c r="AAN7" s="0"/>
+      <c r="AAO7" s="0"/>
+      <c r="AAP7" s="0"/>
+      <c r="AAQ7" s="0"/>
+      <c r="AAR7" s="0"/>
+      <c r="AAS7" s="0"/>
+      <c r="AAT7" s="0"/>
+      <c r="AAU7" s="0"/>
+      <c r="AAV7" s="0"/>
+      <c r="AAW7" s="0"/>
+      <c r="AAX7" s="0"/>
+      <c r="AAY7" s="0"/>
+      <c r="AAZ7" s="0"/>
+      <c r="ABA7" s="0"/>
+      <c r="ABB7" s="0"/>
+      <c r="ABC7" s="0"/>
+      <c r="ABD7" s="0"/>
+      <c r="ABE7" s="0"/>
+      <c r="ABF7" s="0"/>
+      <c r="ABG7" s="0"/>
+      <c r="ABH7" s="0"/>
+      <c r="ABI7" s="0"/>
+      <c r="ABJ7" s="0"/>
+      <c r="ABK7" s="0"/>
+      <c r="ABL7" s="0"/>
+      <c r="ABM7" s="0"/>
+      <c r="ABN7" s="0"/>
+      <c r="ABO7" s="0"/>
+      <c r="ABP7" s="0"/>
+      <c r="ABQ7" s="0"/>
+      <c r="ABR7" s="0"/>
+      <c r="ABS7" s="0"/>
+      <c r="ABT7" s="0"/>
+      <c r="ABU7" s="0"/>
+      <c r="ABV7" s="0"/>
+      <c r="ABW7" s="0"/>
+      <c r="ABX7" s="0"/>
+      <c r="ABY7" s="0"/>
+      <c r="ABZ7" s="0"/>
+      <c r="ACA7" s="0"/>
+      <c r="ACB7" s="0"/>
+      <c r="ACC7" s="0"/>
+      <c r="ACD7" s="0"/>
+      <c r="ACE7" s="0"/>
+      <c r="ACF7" s="0"/>
+      <c r="ACG7" s="0"/>
+      <c r="ACH7" s="0"/>
+      <c r="ACI7" s="0"/>
+      <c r="ACJ7" s="0"/>
+      <c r="ACK7" s="0"/>
+      <c r="ACL7" s="0"/>
+      <c r="ACM7" s="0"/>
+      <c r="ACN7" s="0"/>
+      <c r="ACO7" s="0"/>
+      <c r="ACP7" s="0"/>
+      <c r="ACQ7" s="0"/>
+      <c r="ACR7" s="0"/>
+      <c r="ACS7" s="0"/>
+      <c r="ACT7" s="0"/>
+      <c r="ACU7" s="0"/>
+      <c r="ACV7" s="0"/>
+      <c r="ACW7" s="0"/>
+      <c r="ACX7" s="0"/>
+      <c r="ACY7" s="0"/>
+      <c r="ACZ7" s="0"/>
+      <c r="ADA7" s="0"/>
+      <c r="ADB7" s="0"/>
+      <c r="ADC7" s="0"/>
+      <c r="ADD7" s="0"/>
+      <c r="ADE7" s="0"/>
+      <c r="ADF7" s="0"/>
+      <c r="ADG7" s="0"/>
+      <c r="ADH7" s="0"/>
+      <c r="ADI7" s="0"/>
+      <c r="ADJ7" s="0"/>
+      <c r="ADK7" s="0"/>
+      <c r="ADL7" s="0"/>
+      <c r="ADM7" s="0"/>
+      <c r="ADN7" s="0"/>
+      <c r="ADO7" s="0"/>
+      <c r="ADP7" s="0"/>
+      <c r="ADQ7" s="0"/>
+      <c r="ADR7" s="0"/>
+      <c r="ADS7" s="0"/>
+      <c r="ADT7" s="0"/>
+      <c r="ADU7" s="0"/>
+      <c r="ADV7" s="0"/>
+      <c r="ADW7" s="0"/>
+      <c r="ADX7" s="0"/>
+      <c r="ADY7" s="0"/>
+      <c r="ADZ7" s="0"/>
+      <c r="AEA7" s="0"/>
+      <c r="AEB7" s="0"/>
+      <c r="AEC7" s="0"/>
+      <c r="AED7" s="0"/>
+      <c r="AEE7" s="0"/>
+      <c r="AEF7" s="0"/>
+      <c r="AEG7" s="0"/>
+      <c r="AEH7" s="0"/>
+      <c r="AEI7" s="0"/>
+      <c r="AEJ7" s="0"/>
+      <c r="AEK7" s="0"/>
+      <c r="AEL7" s="0"/>
+      <c r="AEM7" s="0"/>
+      <c r="AEN7" s="0"/>
+      <c r="AEO7" s="0"/>
+      <c r="AEP7" s="0"/>
+      <c r="AEQ7" s="0"/>
+      <c r="AER7" s="0"/>
+      <c r="AES7" s="0"/>
+      <c r="AET7" s="0"/>
+      <c r="AEU7" s="0"/>
+      <c r="AEV7" s="0"/>
+      <c r="AEW7" s="0"/>
+      <c r="AEX7" s="0"/>
+      <c r="AEY7" s="0"/>
+      <c r="AEZ7" s="0"/>
+      <c r="AFA7" s="0"/>
+      <c r="AFB7" s="0"/>
+      <c r="AFC7" s="0"/>
+      <c r="AFD7" s="0"/>
+      <c r="AFE7" s="0"/>
+      <c r="AFF7" s="0"/>
+      <c r="AFG7" s="0"/>
+      <c r="AFH7" s="0"/>
+      <c r="AFI7" s="0"/>
+      <c r="AFJ7" s="0"/>
+      <c r="AFK7" s="0"/>
+      <c r="AFL7" s="0"/>
+      <c r="AFM7" s="0"/>
+      <c r="AFN7" s="0"/>
+      <c r="AFO7" s="0"/>
+      <c r="AFP7" s="0"/>
+      <c r="AFQ7" s="0"/>
+      <c r="AFR7" s="0"/>
+      <c r="AFS7" s="0"/>
+      <c r="AFT7" s="0"/>
+      <c r="AFU7" s="0"/>
+      <c r="AFV7" s="0"/>
+      <c r="AFW7" s="0"/>
+      <c r="AFX7" s="0"/>
+      <c r="AFY7" s="0"/>
+      <c r="AFZ7" s="0"/>
+      <c r="AGA7" s="0"/>
+      <c r="AGB7" s="0"/>
+      <c r="AGC7" s="0"/>
+      <c r="AGD7" s="0"/>
+      <c r="AGE7" s="0"/>
+      <c r="AGF7" s="0"/>
+      <c r="AGG7" s="0"/>
+      <c r="AGH7" s="0"/>
+      <c r="AGI7" s="0"/>
+      <c r="AGJ7" s="0"/>
+      <c r="AGK7" s="0"/>
+      <c r="AGL7" s="0"/>
+      <c r="AGM7" s="0"/>
+      <c r="AGN7" s="0"/>
+      <c r="AGO7" s="0"/>
+      <c r="AGP7" s="0"/>
+      <c r="AGQ7" s="0"/>
+      <c r="AGR7" s="0"/>
+      <c r="AGS7" s="0"/>
+      <c r="AGT7" s="0"/>
+      <c r="AGU7" s="0"/>
+      <c r="AGV7" s="0"/>
+      <c r="AGW7" s="0"/>
+      <c r="AGX7" s="0"/>
+      <c r="AGY7" s="0"/>
+      <c r="AGZ7" s="0"/>
+      <c r="AHA7" s="0"/>
+      <c r="AHB7" s="0"/>
+      <c r="AHC7" s="0"/>
+      <c r="AHD7" s="0"/>
+      <c r="AHE7" s="0"/>
+      <c r="AHF7" s="0"/>
+      <c r="AHG7" s="0"/>
+      <c r="AHH7" s="0"/>
+      <c r="AHI7" s="0"/>
+      <c r="AHJ7" s="0"/>
+      <c r="AHK7" s="0"/>
+      <c r="AHL7" s="0"/>
+      <c r="AHM7" s="0"/>
+      <c r="AHN7" s="0"/>
+      <c r="AHO7" s="0"/>
+      <c r="AHP7" s="0"/>
+      <c r="AHQ7" s="0"/>
+      <c r="AHR7" s="0"/>
+      <c r="AHS7" s="0"/>
+      <c r="AHT7" s="0"/>
+      <c r="AHU7" s="0"/>
+      <c r="AHV7" s="0"/>
+      <c r="AHW7" s="0"/>
+      <c r="AHX7" s="0"/>
+      <c r="AHY7" s="0"/>
+      <c r="AHZ7" s="0"/>
+      <c r="AIA7" s="0"/>
+      <c r="AIB7" s="0"/>
+      <c r="AIC7" s="0"/>
+      <c r="AID7" s="0"/>
+      <c r="AIE7" s="0"/>
+      <c r="AIF7" s="0"/>
+      <c r="AIG7" s="0"/>
+      <c r="AIH7" s="0"/>
+      <c r="AII7" s="0"/>
+      <c r="AIJ7" s="0"/>
+      <c r="AIK7" s="0"/>
+      <c r="AIL7" s="0"/>
+      <c r="AIM7" s="0"/>
+      <c r="AIN7" s="0"/>
+      <c r="AIO7" s="0"/>
+      <c r="AIP7" s="0"/>
+      <c r="AIQ7" s="0"/>
+      <c r="AIR7" s="0"/>
+      <c r="AIS7" s="0"/>
+      <c r="AIT7" s="0"/>
+      <c r="AIU7" s="0"/>
+      <c r="AIV7" s="0"/>
+      <c r="AIW7" s="0"/>
+      <c r="AIX7" s="0"/>
+      <c r="AIY7" s="0"/>
+      <c r="AIZ7" s="0"/>
+      <c r="AJA7" s="0"/>
+      <c r="AJB7" s="0"/>
+      <c r="AJC7" s="0"/>
+      <c r="AJD7" s="0"/>
+      <c r="AJE7" s="0"/>
+      <c r="AJF7" s="0"/>
+      <c r="AJG7" s="0"/>
+      <c r="AJH7" s="0"/>
+      <c r="AJI7" s="0"/>
+      <c r="AJJ7" s="0"/>
+      <c r="AJK7" s="0"/>
+      <c r="AJL7" s="0"/>
+      <c r="AJM7" s="0"/>
+      <c r="AJN7" s="0"/>
+      <c r="AJO7" s="0"/>
+      <c r="AJP7" s="0"/>
+      <c r="AJQ7" s="0"/>
+      <c r="AJR7" s="0"/>
+      <c r="AJS7" s="0"/>
+      <c r="AJT7" s="0"/>
+      <c r="AJU7" s="0"/>
+      <c r="AJV7" s="0"/>
+      <c r="AJW7" s="0"/>
+      <c r="AJX7" s="0"/>
+      <c r="AJY7" s="0"/>
+      <c r="AJZ7" s="0"/>
+      <c r="AKA7" s="0"/>
+      <c r="AKB7" s="0"/>
+      <c r="AKC7" s="0"/>
+      <c r="AKD7" s="0"/>
+      <c r="AKE7" s="0"/>
+      <c r="AKF7" s="0"/>
+      <c r="AKG7" s="0"/>
+      <c r="AKH7" s="0"/>
+      <c r="AKI7" s="0"/>
+      <c r="AKJ7" s="0"/>
+      <c r="AKK7" s="0"/>
+      <c r="AKL7" s="0"/>
+      <c r="AKM7" s="0"/>
+      <c r="AKN7" s="0"/>
+      <c r="AKO7" s="0"/>
+      <c r="AKP7" s="0"/>
+      <c r="AKQ7" s="0"/>
+      <c r="AKR7" s="0"/>
+      <c r="AKS7" s="0"/>
+      <c r="AKT7" s="0"/>
+      <c r="AKU7" s="0"/>
+      <c r="AKV7" s="0"/>
+      <c r="AKW7" s="0"/>
+      <c r="AKX7" s="0"/>
+      <c r="AKY7" s="0"/>
+      <c r="AKZ7" s="0"/>
+      <c r="ALA7" s="0"/>
+      <c r="ALB7" s="0"/>
+      <c r="ALC7" s="0"/>
+      <c r="ALD7" s="0"/>
+      <c r="ALE7" s="0"/>
+      <c r="ALF7" s="0"/>
+      <c r="ALG7" s="0"/>
+      <c r="ALH7" s="0"/>
+      <c r="ALI7" s="0"/>
+      <c r="ALJ7" s="0"/>
+      <c r="ALK7" s="0"/>
+      <c r="ALL7" s="0"/>
+      <c r="ALM7" s="0"/>
+      <c r="ALN7" s="0"/>
+      <c r="ALO7" s="0"/>
+      <c r="ALP7" s="0"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="0"/>
+      <c r="AMA7" s="0"/>
+      <c r="AMB7" s="0"/>
+      <c r="AMC7" s="0"/>
+      <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -9201,7 +10200,7 @@
       <c r="O12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9235,7 +10234,7 @@
       <c r="O13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9258,72 +10257,72 @@
   <dimension ref="1:13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="2" sqref="I13 I30 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="65.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="18" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="18" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="18" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="64.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="16" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="n">
+      <c r="B2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="n">
+      <c r="C2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="n">
+      <c r="D2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="25" t="n">
+      <c r="E2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -10341,243 +11340,243 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25" t="n">
+      <c r="B4" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="25" t="n">
+      <c r="B7" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="25" t="n">
+      <c r="B8" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25" t="n">
+      <c r="B9" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="25" t="n">
+      <c r="B10" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25" t="n">
+      <c r="B11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="25" t="n">
+      <c r="B12" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="25" t="n">
+      <c r="B13" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="25" t="n">
+      <c r="E13" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
